--- a/input/reg_education.xlsx
+++ b/input/reg_education.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\Dropbox\INAPP\Output\UK_new_estimates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142864D0-E2AF-4C17-B4BD-FAEA0790EFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF204516-1300-40D4-B219-EDE8C3A77306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8970" yWindow="0" windowWidth="28800" windowHeight="15345" tabRatio="919" activeTab="3" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="919" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="137">
   <si>
     <t>REGRESSOR</t>
   </si>
@@ -346,12 +346,6 @@
     <t>COVARIANCE</t>
   </si>
   <si>
-    <t>Date modified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This file contains regression estimates used by processes E1a (probability of being in continuous education), E1b(probability of being in education after a break), and E2a (educational attainment when leaving education for the first time). Worksheets prefixed by UK_ contain the estimates in a format readable by the simulation; other files contain the estimates and variance-covariance matrices in a format that is easier to read for the modeller. </t>
-  </si>
-  <si>
     <t>Region (Ref = Central Italy)</t>
   </si>
   <si>
@@ -426,6 +420,45 @@
   <si>
     <t>Cut2</t>
   </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>Model parameters governing projection of education status</t>
+  </si>
+  <si>
+    <t>First edit:</t>
+  </si>
+  <si>
+    <t>Last edit:</t>
+  </si>
+  <si>
+    <t>16/06/2023 (PB)</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>E1a</t>
+  </si>
+  <si>
+    <t>E1b</t>
+  </si>
+  <si>
+    <t>E2a</t>
+  </si>
+  <si>
+    <t>probability of being in continuous education</t>
+  </si>
+  <si>
+    <t>probability of being in education after a break</t>
+  </si>
+  <si>
+    <t>multinomial educational attainment when leaving education for the first time</t>
+  </si>
 </sst>
 </file>
 
@@ -435,7 +468,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +512,13 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -504,7 +544,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -545,15 +585,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -566,7 +598,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,103 +916,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F25AC8-F3A4-45E4-B3D4-29D900575D65}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="10" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25">
-        <v>45096</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:F9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -993,7 +998,7 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -1003,32 +1008,32 @@
     <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="I1" s="28" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-    </row>
-    <row r="3" spans="1:13" ht="30">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1051,12 +1056,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1079,7 +1084,7 @@
         <v>4.3173279830727981E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1102,7 +1107,7 @@
         <v>-1.0867349300913114</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1125,7 +1130,7 @@
         <v>2.9310488915089857E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1133,7 +1138,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1144,7 +1149,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1167,7 +1172,7 @@
         <v>-1.2895480832432693E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1196,7 +1201,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1204,7 +1209,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1215,7 +1220,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1238,7 +1243,7 @@
         <v>-0.21997026558799518</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -1261,7 +1266,7 @@
         <v>-0.19648547501147556</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1275,7 +1280,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1286,7 +1291,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1309,7 +1314,7 @@
         <v>0.15907271554023461</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1332,7 +1337,7 @@
         <v>-0.13362244479607691</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -1361,7 +1366,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -1384,7 +1389,7 @@
         <v>-8.0242069914481157E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1407,7 +1412,7 @@
         <v>1.3192759660287129E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -1430,7 +1435,7 @@
         <v>5.2873854408449536E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -1453,7 +1458,7 @@
         <v>-8.6518835486696838E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1476,7 +1481,7 @@
         <v>-8.9806601302533678E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1499,7 +1504,7 @@
         <v>-2.242902210208178E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -1522,7 +1527,7 @@
         <v>-0.11650960776407068</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -1545,7 +1550,7 @@
         <v>9.7937268452864421E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1568,7 +1573,7 @@
         <v>-0.10223585011210344</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1591,7 +1596,7 @@
         <v>275.49916585105092</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1599,7 +1604,7 @@
         <v>11841</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1607,7 +1612,7 @@
         <v>1160.3900000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1615,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1623,7 +1628,7 @@
         <v>0.13439999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1649,7 +1654,7 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
@@ -1659,32 +1664,32 @@
     <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="I1" s="28" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-    </row>
-    <row r="3" spans="1:13" ht="30">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1707,15 +1712,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1738,7 +1743,7 @@
         <v>-5.2564292187814651E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1761,7 +1766,7 @@
         <v>-0.32089763371267088</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1784,7 +1789,7 @@
         <v>5.263134392633843E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1792,7 +1797,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1803,7 +1808,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -1826,7 +1831,7 @@
         <v>0.17265826453603772</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1849,7 +1854,7 @@
         <v>-0.17430046785080694</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1857,7 +1862,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>61</v>
       </c>
@@ -1868,7 +1873,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>62</v>
       </c>
@@ -1891,7 +1896,7 @@
         <v>1.8769726031066334</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>63</v>
       </c>
@@ -1914,7 +1919,7 @@
         <v>0.34199821039886158</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1937,7 +1942,7 @@
         <v>0.12542679679883106</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>65</v>
       </c>
@@ -1960,7 +1965,7 @@
         <v>-0.11750620885730963</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1974,7 +1979,7 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1985,7 +1990,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
@@ -2008,7 +2013,7 @@
         <v>-0.1085999411594962</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -2037,7 +2042,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2045,7 +2050,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2056,7 +2061,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
@@ -2079,7 +2084,7 @@
         <v>-5.8826186871193981E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -2102,7 +2107,7 @@
         <v>-0.14583676797138245</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2116,7 +2121,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2127,7 +2132,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>20</v>
       </c>
@@ -2150,7 +2155,7 @@
         <v>0.2319990307449904</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
@@ -2173,7 +2178,7 @@
         <v>-1.8327543734034057E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
@@ -2202,7 +2207,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>23</v>
       </c>
@@ -2225,7 +2230,7 @@
         <v>-0.1450388563793038</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>24</v>
       </c>
@@ -2248,7 +2253,7 @@
         <v>-1.4125803997461828E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
@@ -2271,7 +2276,7 @@
         <v>-0.10258207288333632</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
@@ -2294,7 +2299,7 @@
         <v>-7.1112922546785196E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>27</v>
       </c>
@@ -2317,7 +2322,7 @@
         <v>-0.24274525489076929</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>28</v>
       </c>
@@ -2346,7 +2351,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>29</v>
       </c>
@@ -2369,7 +2374,7 @@
         <v>0.2235368890560161</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>30</v>
       </c>
@@ -2392,7 +2397,7 @@
         <v>3.1676721729858026E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -2415,7 +2420,7 @@
         <v>6.8492974721082889E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -2438,11 +2443,11 @@
         <v>57.088954750941326</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -2450,7 +2455,7 @@
         <v>51526</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -2458,7 +2463,7 @@
         <v>3154.24</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -2466,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>36</v>
       </c>
@@ -2474,7 +2479,7 @@
         <v>0.3931</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>37</v>
       </c>
@@ -2499,7 +2504,7 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -2509,32 +2514,32 @@
     <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="I1" s="28" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-    </row>
-    <row r="3" spans="1:13" ht="30">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -2557,17 +2562,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -2590,7 +2595,7 @@
         <v>0.25165856152730182</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2613,7 +2618,7 @@
         <v>3.3976236385885561</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2636,7 +2641,7 @@
         <v>-3.8291636696982545E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2644,7 +2649,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2655,7 +2660,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -2678,7 +2683,7 @@
         <v>-4.5545278381361604E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -2707,7 +2712,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2715,7 +2720,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -2726,7 +2731,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -2749,7 +2754,7 @@
         <v>0.21715614467249433</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -2772,7 +2777,7 @@
         <v>1.8755682321922068E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -2786,7 +2791,7 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2797,7 +2802,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -2820,7 +2825,7 @@
         <v>0.62202772627927683</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -2843,7 +2848,7 @@
         <v>0.53527500276510342</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -2872,7 +2877,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -2895,7 +2900,7 @@
         <v>0.4463825438275586</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -2918,7 +2923,7 @@
         <v>0.58113412671723608</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -2941,7 +2946,7 @@
         <v>0.51409230009653473</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -2964,7 +2969,7 @@
         <v>0.50356072105793492</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -2987,7 +2992,7 @@
         <v>0.35044270041912334</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
@@ -3010,7 +3015,7 @@
         <v>0.16283649689513602</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
@@ -3033,7 +3038,7 @@
         <v>0.21686957913898824</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -3056,7 +3061,7 @@
         <v>0.73040455861439102</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -3079,7 +3084,7 @@
         <v>0.125403420917516</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -3102,22 +3107,22 @@
         <v>-157.58487705935096</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
@@ -3140,7 +3145,7 @@
         <v>0.31639807955510524</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3163,7 +3168,7 @@
         <v>-2.5347301610689121</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -3186,7 +3191,7 @@
         <v>7.3020280510366298E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -3194,7 +3199,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -3205,7 +3210,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3228,7 +3233,7 @@
         <v>0.28619474637811576</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
@@ -3257,7 +3262,7 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -3265,7 +3270,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -3276,7 +3281,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3299,7 +3304,7 @@
         <v>0.25934931718384419</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>17</v>
       </c>
@@ -3322,7 +3327,7 @@
         <v>0.35997305575978922</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -3336,7 +3341,7 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -3347,7 +3352,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>20</v>
       </c>
@@ -3370,7 +3375,7 @@
         <v>0.4749687292837933</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
@@ -3393,7 +3398,7 @@
         <v>0.1231676026673052</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>22</v>
       </c>
@@ -3422,7 +3427,7 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
@@ -3445,7 +3450,7 @@
         <v>0.18267183233294046</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>24</v>
       </c>
@@ -3468,7 +3473,7 @@
         <v>0.45658708901127587</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>25</v>
       </c>
@@ -3491,7 +3496,7 @@
         <v>3.4153397265265256E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>26</v>
       </c>
@@ -3514,7 +3519,7 @@
         <v>-3.593619360163558E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>27</v>
       </c>
@@ -3537,7 +3542,7 @@
         <v>-0.20604668315170233</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>28</v>
       </c>
@@ -3560,7 +3565,7 @@
         <v>0.3531804591503413</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>29</v>
       </c>
@@ -3583,7 +3588,7 @@
         <v>5.0492714363684188E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>30</v>
       </c>
@@ -3606,7 +3611,7 @@
         <v>0.49925440040903207</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>31</v>
       </c>
@@ -3629,7 +3634,7 @@
         <v>6.7588918807730589E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>32</v>
       </c>
@@ -3652,7 +3657,7 @@
         <v>-6.3800981221532993E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -3660,7 +3665,7 @@
         <v>11431</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v>1069.6400000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>35</v>
       </c>
@@ -3676,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>37</v>
       </c>
@@ -3702,7 +3707,7 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
@@ -3714,32 +3719,32 @@
     <col min="8" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="I1" s="30" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="I1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" ht="45">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
@@ -3762,10 +3767,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
@@ -3776,7 +3781,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -3799,7 +3804,7 @@
         <v>-9.5619156248944695E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
@@ -3822,7 +3827,7 @@
         <v>-0.42924344867606623</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
@@ -3845,7 +3850,7 @@
         <v>1.1713795771197784E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -3853,7 +3858,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
@@ -3864,7 +3869,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>16</v>
       </c>
@@ -3887,7 +3892,7 @@
         <v>-0.1721236826533365</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -3910,7 +3915,7 @@
         <v>-0.11174797457017271</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -3918,7 +3923,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
@@ -3929,7 +3934,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>16</v>
       </c>
@@ -3952,7 +3957,7 @@
         <v>-0.24819959113105305</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -3975,7 +3980,7 @@
         <v>-0.37892082454359183</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -3984,9 +3989,9 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -3995,9 +4000,9 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="17">
         <v>-7.4585374784208819E-2</v>
@@ -4018,9 +4023,9 @@
         <v>3.1657017448102481E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" s="17">
         <v>-8.941326447558294E-2</v>
@@ -4041,9 +4046,9 @@
         <v>-1.3318811887526982E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B21" s="17">
         <v>-4.86714437661473E-2</v>
@@ -4064,9 +4069,9 @@
         <v>2.3862161449825052E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="17">
         <v>-7.795930106073691E-2</v>
@@ -4087,9 +4092,9 @@
         <v>1.9676019955397819E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" s="17">
         <v>-1.6328558816894951E-2</v>
@@ -4110,7 +4115,7 @@
         <v>-9.2502993601016742E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>32</v>
       </c>
@@ -4133,7 +4138,7 @@
         <v>55.458648707549294</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>33</v>
       </c>
@@ -4141,15 +4146,15 @@
         <v>30781</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B27" s="17">
         <v>1049.77</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>35</v>
       </c>
@@ -4157,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>36</v>
       </c>
@@ -4165,7 +4170,7 @@
         <v>7.2800000000000004E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>37</v>
       </c>
@@ -4190,7 +4195,7 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="15" bestFit="1" customWidth="1"/>
@@ -4202,32 +4207,32 @@
     <col min="8" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="I1" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" ht="45">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="I1" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>58</v>
       </c>
@@ -4250,10 +4255,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
@@ -4264,7 +4269,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -4287,7 +4292,7 @@
         <v>0.24598160039537556</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
@@ -4310,7 +4315,7 @@
         <v>0.63940643981454692</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
@@ -4333,7 +4338,7 @@
         <v>-3.4875849613554763E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -4341,7 +4346,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>60</v>
       </c>
@@ -4352,7 +4357,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>16</v>
       </c>
@@ -4375,7 +4380,7 @@
         <v>-0.1828773032095099</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -4398,7 +4403,7 @@
         <v>-0.40012024192833801</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -4406,7 +4411,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>61</v>
       </c>
@@ -4417,7 +4422,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>62</v>
       </c>
@@ -4440,7 +4445,7 @@
         <v>3.5126516457855801</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>63</v>
       </c>
@@ -4463,7 +4468,7 @@
         <v>0.48687098400935203</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>64</v>
       </c>
@@ -4486,7 +4491,7 @@
         <v>0.34303420305219479</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -4495,7 +4500,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>15</v>
       </c>
@@ -4506,7 +4511,7 @@
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>16</v>
       </c>
@@ -4529,7 +4534,7 @@
         <v>0.97573176887898017</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>17</v>
       </c>
@@ -4552,7 +4557,7 @@
         <v>1.124829183503383</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -4560,7 +4565,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>18</v>
       </c>
@@ -4571,7 +4576,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>16</v>
       </c>
@@ -4594,7 +4599,7 @@
         <v>0.28817443365133394</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>17</v>
       </c>
@@ -4617,7 +4622,7 @@
         <v>0.49023134445378191</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -4626,9 +4631,9 @@
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -4637,9 +4642,9 @@
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B28" s="17">
         <v>-0.15811192843570299</v>
@@ -4660,9 +4665,9 @@
         <v>6.6364362626936041E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B29" s="17">
         <v>-0.24903518618733236</v>
@@ -4683,9 +4688,9 @@
         <v>-3.1138529415083743E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B30" s="17">
         <v>-0.1562399515432088</v>
@@ -4706,9 +4711,9 @@
         <v>8.3742221305104669E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B31" s="17">
         <v>-0.33046399284724171</v>
@@ -4729,9 +4734,9 @@
         <v>-3.779182530248365E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B32" s="17">
         <v>4.3700133300832604E-2</v>
@@ -4752,7 +4757,7 @@
         <v>6.2126464570574039E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>32</v>
       </c>
@@ -4775,7 +4780,7 @@
         <v>-56.306618659635284</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>33</v>
       </c>
@@ -4783,15 +4788,15 @@
         <v>22673</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B36" s="17">
         <v>901.12</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>35</v>
       </c>
@@ -4799,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>36</v>
       </c>
@@ -4807,7 +4812,7 @@
         <v>0.54410000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>37</v>
       </c>
@@ -4832,7 +4837,7 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
@@ -4844,32 +4849,32 @@
     <col min="8" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="I1" s="30" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="I1" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" ht="30">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+    </row>
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>75</v>
       </c>
@@ -4892,12 +4897,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
@@ -4908,7 +4913,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -4931,7 +4936,7 @@
         <v>-3.0801726520278044E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
@@ -4954,7 +4959,7 @@
         <v>3.6449230531532866</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
@@ -4977,7 +4982,7 @@
         <v>-5.3406301541011662E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
@@ -4985,7 +4990,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
@@ -4996,7 +5001,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>16</v>
       </c>
@@ -5019,7 +5024,7 @@
         <v>1.7469368941429489E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>17</v>
       </c>
@@ -5042,7 +5047,7 @@
         <v>0.21882122061296269</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -5050,7 +5055,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>18</v>
       </c>
@@ -5061,7 +5066,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>16</v>
       </c>
@@ -5084,7 +5089,7 @@
         <v>-6.6135514402820977E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -5107,7 +5112,7 @@
         <v>-0.32162547144086062</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -5116,9 +5121,9 @@
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -5127,9 +5132,9 @@
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" s="17">
         <v>0.43977921844376372</v>
@@ -5150,9 +5155,9 @@
         <v>0.57940942184113864</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" s="17">
         <v>0.56842145336236216</v>
@@ -5173,9 +5178,9 @@
         <v>0.70646116326295627</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B21" s="17">
         <v>-0.11479295439500418</v>
@@ -5196,9 +5201,9 @@
         <v>1.8081003759173223E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="17">
         <v>-8.6951941103751776E-2</v>
@@ -5219,9 +5224,9 @@
         <v>8.850596646693E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" s="17">
         <v>3.6665932770404842E-2</v>
@@ -5242,7 +5247,7 @@
         <v>4.943248568299792E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>32</v>
       </c>
@@ -5265,7 +5270,7 @@
         <v>-91.555568463410538</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -5274,7 +5279,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>77</v>
       </c>
@@ -5285,7 +5290,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5293,7 +5298,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>17</v>
       </c>
@@ -5304,7 +5309,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>11</v>
       </c>
@@ -5315,7 +5320,7 @@
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>12</v>
       </c>
@@ -5338,7 +5343,7 @@
         <v>0.48490901904262312</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>13</v>
       </c>
@@ -5361,7 +5366,7 @@
         <v>-0.47886110257924908</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>14</v>
       </c>
@@ -5384,7 +5389,7 @@
         <v>2.4703061972423609E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -5392,7 +5397,7 @@
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>15</v>
       </c>
@@ -5403,7 +5408,7 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>16</v>
       </c>
@@ -5426,7 +5431,7 @@
         <v>0.30576590007435045</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>17</v>
       </c>
@@ -5449,7 +5454,7 @@
         <v>0.83771630167196043</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -5457,7 +5462,7 @@
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>18</v>
       </c>
@@ -5468,7 +5473,7 @@
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>16</v>
       </c>
@@ -5491,7 +5496,7 @@
         <v>0.59085136977492159</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>17</v>
       </c>
@@ -5514,7 +5519,7 @@
         <v>0.70077469029414108</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -5523,9 +5528,9 @@
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -5534,9 +5539,9 @@
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B43" s="17">
         <v>0.16436714580045925</v>
@@ -5557,9 +5562,9 @@
         <v>0.43549817678176628</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B44" s="17">
         <v>0.41663129215805561</v>
@@ -5580,9 +5585,9 @@
         <v>0.69973979023143695</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B45" s="17">
         <v>0.17703263210549405</v>
@@ -5603,9 +5608,9 @@
         <v>0.42189803163098927</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B46" s="17">
         <v>0.49679124169429334</v>
@@ -5626,9 +5631,9 @@
         <v>0.79476800603980324</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B47" s="17">
         <v>-4.1907296542990205E-2</v>
@@ -5649,7 +5654,7 @@
         <v>-2.155442038877339E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>32</v>
       </c>
@@ -5672,7 +5677,7 @@
         <v>129.120626603598</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>78</v>
       </c>
@@ -5680,15 +5685,15 @@
         <v>30752</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B51" s="17">
         <v>1671.8</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>35</v>
       </c>
@@ -5696,7 +5701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
         <v>37</v>
       </c>
@@ -5721,13 +5726,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5789,13 +5794,13 @@
         <v>55</v>
       </c>
       <c r="U1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -5863,7 +5868,7 @@
         <v>-1.137552403609271E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -5931,7 +5936,7 @@
         <v>-5.3398609525562718E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -5999,7 +6004,7 @@
         <v>1.297057384073921E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -6067,7 +6072,7 @@
         <v>-8.0810305569478918E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -6135,7 +6140,7 @@
         <v>-1.0308104400783471E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -6203,7 +6208,7 @@
         <v>-3.5366007089491693E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -6271,7 +6276,7 @@
         <v>-3.8715618615098122E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -6339,7 +6344,7 @@
         <v>-7.4595075369837097E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -6407,7 +6412,7 @@
         <v>-4.509284318923475E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -6475,7 +6480,7 @@
         <v>-2.0872649483706079E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -6543,7 +6548,7 @@
         <v>-3.8813144353095023E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -6611,7 +6616,7 @@
         <v>-3.1709650612053598E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -6679,7 +6684,7 @@
         <v>-2.3345775176872915E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -6747,7 +6752,7 @@
         <v>-3.2667080886263702E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -6815,7 +6820,7 @@
         <v>-3.555604823139805E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -6883,7 +6888,7 @@
         <v>-3.266036678708166E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -6951,7 +6956,7 @@
         <v>-4.4367738094987057E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -7019,9 +7024,9 @@
         <v>-1.6930073438160432E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B20" s="23">
         <v>-0.11576906152853363</v>
@@ -7087,7 +7092,7 @@
         <v>-7.3297319902289456E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -7168,13 +7173,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7254,13 +7259,13 @@
         <v>55</v>
       </c>
       <c r="AA1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AB1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -7346,7 +7351,7 @@
         <v>-1.1085652186149655E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -7432,7 +7437,7 @@
         <v>-5.5099018051584089E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -7518,7 +7523,7 @@
         <v>8.4388055175121463E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -7604,7 +7609,7 @@
         <v>-4.3809857534506088E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -7690,7 +7695,7 @@
         <v>-2.6967397973528743E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -7776,7 +7781,7 @@
         <v>-1.4376164907014103E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -7862,7 +7867,7 @@
         <v>-2.765881688584537E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -7948,7 +7953,7 @@
         <v>9.0603677346196097E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -8034,7 +8039,7 @@
         <v>2.2789410926195527E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -8120,7 +8125,7 @@
         <v>-1.5524941157527869E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -8206,7 +8211,7 @@
         <v>-3.3305245382067028E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -8292,7 +8297,7 @@
         <v>-1.080848049277634E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -8378,7 +8383,7 @@
         <v>-4.727539283819931E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -8464,7 +8469,7 @@
         <v>-2.0885156976257029E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -8550,7 +8555,7 @@
         <v>-2.821852320227834E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -8636,7 +8641,7 @@
         <v>-1.8985538258512018E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -8722,7 +8727,7 @@
         <v>-2.9678599447687071E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -8808,7 +8813,7 @@
         <v>-1.2112861388061736E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -8894,7 +8899,7 @@
         <v>-1.9174859956920876E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -8980,7 +8985,7 @@
         <v>-3.0186955046200229E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
@@ -9066,7 +9071,7 @@
         <v>-1.9346848142535048E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -9152,7 +9157,7 @@
         <v>-3.255829478917561E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -9238,7 +9243,7 @@
         <v>-3.8603294997302437E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -9324,9 +9329,9 @@
         <v>-3.3429036268469675E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B26" s="14">
         <v>-9.6398506519262944E-3</v>
@@ -9410,7 +9415,7 @@
         <v>-9.459919028833927E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -9505,15 +9510,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1285CCF6-ED07-4956-95C1-5161D138438C}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9575,20 +9580,20 @@
         <v>55</v>
       </c>
       <c r="U1" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" t="s">
+        <v>122</v>
+      </c>
+      <c r="W1" t="s">
         <v>123</v>
       </c>
-      <c r="V1" t="s">
-        <v>124</v>
-      </c>
-      <c r="W1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="24">
         <v>-2.6522133156834861E-2</v>
       </c>
       <c r="C2">
@@ -9655,11 +9660,11 @@
         <v>2.9507956156786391E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="24">
         <v>1.4273274115611729</v>
       </c>
       <c r="C3">
@@ -9726,11 +9731,11 @@
         <v>0.1087822210340495</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="24">
         <v>-2.5166163060353741E-2</v>
       </c>
       <c r="C4">
@@ -9797,11 +9802,11 @@
         <v>-2.467608898569066E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="24">
         <v>-0.1264186770577842</v>
       </c>
       <c r="C5">
@@ -9868,11 +9873,11 @@
         <v>2.5908159709798449E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="24">
         <v>-0.26280464788803298</v>
       </c>
       <c r="C6">
@@ -9939,11 +9944,11 @@
         <v>2.0139821112695731E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="24">
         <v>-3.812693000153141E-2</v>
       </c>
       <c r="C7">
@@ -10010,11 +10015,11 @@
         <v>1.2627913929677661E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="24">
         <v>-0.14923292371438601</v>
       </c>
       <c r="C8">
@@ -10081,11 +10086,11 @@
         <v>2.8098359033128218E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="24">
         <v>3.8802580797483818E-2</v>
       </c>
       <c r="C9">
@@ -10152,11 +10157,11 @@
         <v>4.9793128378958313E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="24">
         <v>0.1160755764228686</v>
       </c>
       <c r="C10">
@@ -10223,11 +10228,11 @@
         <v>3.1513411820677148E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="24">
         <v>1.833057403163036E-2</v>
       </c>
       <c r="C11">
@@ -10294,11 +10299,11 @@
         <v>2.6670263932951251E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="24">
         <v>8.4444121278466552E-2</v>
       </c>
       <c r="C12">
@@ -10365,11 +10370,11 @@
         <v>5.6354500567980786E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="24">
         <v>-2.435834062710561E-2</v>
       </c>
       <c r="C13">
@@ -10436,11 +10441,11 @@
         <v>2.8015590491038832E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="24">
         <v>0.20080782617243201</v>
       </c>
       <c r="C14">
@@ -10507,11 +10512,11 @@
         <v>1.135876821321103E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="24">
         <v>0.17282445468201699</v>
       </c>
       <c r="C15">
@@ -10578,11 +10583,11 @@
         <v>5.8986961645706116E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="24">
         <v>0.19784007706010739</v>
       </c>
       <c r="C16">
@@ -10649,11 +10654,11 @@
         <v>3.802066296270236E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="24">
         <v>-8.9016779303008789E-2</v>
       </c>
       <c r="C17">
@@ -10720,11 +10725,11 @@
         <v>5.6268926515771782E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="24">
         <v>9.1260092190620562E-2</v>
       </c>
       <c r="C18">
@@ -10791,11 +10796,11 @@
         <v>1.678132258968101E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="24">
         <v>4.4911934793403857E-2</v>
       </c>
       <c r="C19">
@@ -10862,11 +10867,11 @@
         <v>3.068177178050413E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="31">
+        <v>121</v>
+      </c>
+      <c r="B20" s="24">
         <v>1.521134302602409E-2</v>
       </c>
       <c r="C20">
@@ -10933,11 +10938,11 @@
         <v>1.0002501995366639E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="31">
+        <v>122</v>
+      </c>
+      <c r="B21" s="24">
         <v>15.695579148848889</v>
       </c>
       <c r="C21">
@@ -11004,11 +11009,11 @@
         <v>1.1463894932641721</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="31">
+        <v>123</v>
+      </c>
+      <c r="B22" s="24">
         <v>19.716860490811051</v>
       </c>
       <c r="C22">
@@ -11086,13 +11091,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11121,16 +11126,16 @@
         <v>44</v>
       </c>
       <c r="J1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" t="s">
         <v>111</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>112</v>
-      </c>
-      <c r="L1" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" t="s">
-        <v>114</v>
       </c>
       <c r="N1" t="s">
         <v>31</v>
@@ -11139,7 +11144,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -11186,7 +11191,7 @@
         <v>-2.3898418975268343E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -11233,7 +11238,7 @@
         <v>-3.1642773448411265E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -11280,7 +11285,7 @@
         <v>7.1569819858267186E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -11327,7 +11332,7 @@
         <v>-2.5297322255153354E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -11374,7 +11379,7 @@
         <v>-6.0288509133486823E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -11421,7 +11426,7 @@
         <v>-1.6407054023563739E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -11468,9 +11473,9 @@
         <v>-4.5175191624789335E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" s="14">
         <v>-7.4585374784208819E-2</v>
@@ -11515,9 +11520,9 @@
         <v>-7.2318557662105487E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="14">
         <v>-8.941326447558294E-2</v>
@@ -11562,9 +11567,9 @@
         <v>-4.7066587466521037E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" s="14">
         <v>-4.86714437661473E-2</v>
@@ -11609,9 +11614,9 @@
         <v>-3.064458657363496E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="14">
         <v>-7.795930106073691E-2</v>
@@ -11656,7 +11661,7 @@
         <v>-2.1635796291973652E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -11703,7 +11708,7 @@
         <v>-2.6316635829574775E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -11761,13 +11766,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11811,16 +11816,16 @@
         <v>44</v>
       </c>
       <c r="O1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q1" t="s">
         <v>111</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>112</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>113</v>
-      </c>
-      <c r="R1" t="s">
-        <v>114</v>
       </c>
       <c r="S1" t="s">
         <v>31</v>
@@ -11829,7 +11834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -11891,7 +11896,7 @@
         <v>-7.0176509216005156E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -11953,7 +11958,7 @@
         <v>-0.34871014004713219</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -12015,7 +12020,7 @@
         <v>7.436177323682857E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -12077,7 +12082,7 @@
         <v>-7.9530264485160984E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -12139,7 +12144,7 @@
         <v>-5.3418434824390459E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -12201,7 +12206,7 @@
         <v>5.7467606517628944E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -12263,7 +12268,7 @@
         <v>0.33831704594235745</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -12325,7 +12330,7 @@
         <v>0.31272429965578918</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -12387,7 +12392,7 @@
         <v>-0.5730064611965684</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -12449,7 +12454,7 @@
         <v>-0.86590996766662442</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -12511,7 +12516,7 @@
         <v>-7.7547349516777497E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -12573,9 +12578,9 @@
         <v>7.8838638401350636E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B14" s="14">
         <v>-0.15811192843570299</v>
@@ -12635,9 +12640,9 @@
         <v>-0.35476004448905218</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B15" s="14">
         <v>-0.24903518618733236</v>
@@ -12697,9 +12702,9 @@
         <v>5.8965476991952315E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" s="14">
         <v>-0.1562399515432088</v>
@@ -12759,9 +12764,9 @@
         <v>-0.4757977175169632</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B17" s="14">
         <v>-0.33046399284724171</v>
@@ -12821,7 +12826,7 @@
         <v>-0.27757777336320011</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -12883,7 +12888,7 @@
         <v>-0.17870233932303492</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -12958,13 +12963,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12972,7 +12977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -12980,7 +12985,7 @@
         <v>-0.12625892441477868</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -12988,7 +12993,7 @@
         <v>3.2868524500090457</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -12996,7 +13001,7 @@
         <v>-6.0857187050110943E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -13004,7 +13009,7 @@
         <v>-0.11855095524562138</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -13012,7 +13017,7 @@
         <v>-4.6262236268959358E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -13020,7 +13025,7 @@
         <v>-0.19272954281348495</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -13028,39 +13033,39 @@
         <v>-0.54351593362459116</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" s="14">
         <v>0.43977921844376372</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="14">
         <v>0.56842145336236216</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" s="14">
         <v>-0.11479295439500418</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="14">
         <v>-8.6951941103751776E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -13068,7 +13073,7 @@
         <v>3.6665932770404842E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -13089,13 +13094,13 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13103,7 +13108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -13111,7 +13116,7 @@
         <v>0.30403772799150613</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -13119,7 +13124,7 @@
         <v>-0.74566846279495547</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -13127,7 +13132,7 @@
         <v>1.8658128692293611E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -13135,7 +13140,7 @@
         <v>3.683085899786036E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -13143,7 +13148,7 @@
         <v>0.46124894358813884</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -13151,7 +13156,7 @@
         <v>0.30559421712270507</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -13159,39 +13164,39 @@
         <v>0.29795030624274144</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" s="14">
         <v>0.16436714580045925</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="14">
         <v>0.41663129215805561</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" s="14">
         <v>0.17703263210549405</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="14">
         <v>0.49679124169429334</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -13199,7 +13204,7 @@
         <v>-4.1907296542990205E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -13218,12 +13223,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>98</v>
       </c>
@@ -13249,16 +13254,16 @@
         <v>95</v>
       </c>
       <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" t="s">
         <v>115</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>116</v>
-      </c>
-      <c r="K1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" t="s">
-        <v>118</v>
       </c>
       <c r="M1" t="s">
         <v>96</v>
@@ -13288,16 +13293,16 @@
         <v>86</v>
       </c>
       <c r="V1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" t="s">
+        <v>118</v>
+      </c>
+      <c r="X1" t="s">
         <v>119</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>120</v>
-      </c>
-      <c r="X1" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>122</v>
       </c>
       <c r="Z1" t="s">
         <v>87</v>
@@ -13306,7 +13311,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -13389,7 +13394,7 @@
         <v>8.2067425762391011E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -13472,7 +13477,7 @@
         <v>-2.9845644408512895E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -13555,7 +13560,7 @@
         <v>6.6749549765929284E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -13638,7 +13643,7 @@
         <v>-1.1068899468143156E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -13721,7 +13726,7 @@
         <v>-4.5487830269167473E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -13804,7 +13809,7 @@
         <v>-5.0808390590889596E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -13887,9 +13892,9 @@
         <v>1.9957384154325242E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B9">
         <v>-2.0988187019605864E-4</v>
@@ -13970,9 +13975,9 @@
         <v>-4.4705277069859162E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B10">
         <v>-2.5229933867431298E-4</v>
@@ -14053,9 +14058,9 @@
         <v>4.1077671766361901E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B11">
         <v>7.9292636684883098E-6</v>
@@ -14136,9 +14141,9 @@
         <v>-2.559797148368903E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12">
         <v>-4.5149094885567635E-5</v>
@@ -14219,7 +14224,7 @@
         <v>-5.1790114685557054E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -14302,7 +14307,7 @@
         <v>-1.0985690658653402E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>97</v>
       </c>
@@ -14385,7 +14390,7 @@
         <v>22.435468576985841</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -14468,7 +14473,7 @@
         <v>0.38578071581119966</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -14551,7 +14556,7 @@
         <v>-0.90135559735473691</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -14634,7 +14639,7 @@
         <v>2.0903129303558532E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -14717,7 +14722,7 @@
         <v>-0.60327646622674891</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>84</v>
       </c>
@@ -14800,7 +14805,7 @@
         <v>-0.47920135574604927</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -14883,7 +14888,7 @@
         <v>-0.26183688417915807</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>86</v>
       </c>
@@ -14966,9 +14971,9 @@
         <v>-0.71970173791536851</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B22">
         <v>-2.6297765294080273E-6</v>
@@ -15049,9 +15054,9 @@
         <v>0.65161793337476581</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B23">
         <v>-7.4522435466640221E-5</v>
@@ -15132,9 +15137,9 @@
         <v>-0.39741909727890601</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B24">
         <v>-9.3240266306575392E-6</v>
@@ -15215,9 +15220,9 @@
         <v>-0.17088180320048085</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B25">
         <v>2.3479694828301527E-6</v>
@@ -15298,7 +15303,7 @@
         <v>0.31903362073634156</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -15381,7 +15386,7 @@
         <v>-0.22053846058183169</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>88</v>
       </c>

--- a/input/reg_education.xlsx
+++ b/input/reg_education.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\data work\regression_estimates\reg files\revised\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AE09CC-A6E4-452D-95E4-6213C84C5B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE2EFB6-F4C1-4593-8B5C-4A00789598DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="919" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="919" activeTab="3" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -624,7 +624,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -648,12 +648,6 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -662,10 +656,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -985,7 +982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F25AC8-F3A4-45E4-B3D4-29D900575D65}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3606,29 +3605,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="I1" s="18" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="I1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4094,29 +4093,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="I1" s="18" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="I1" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4736,29 +4735,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="I1" s="18" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="I1" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -5609,13 +5608,13 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:T19"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="20" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -6811,14 +6810,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D54BEF-A785-4097-B447-1AE751D019CE}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Z25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="2" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
@@ -6905,79 +6902,79 @@
       <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="25">
         <v>-0.14485449357323898</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="25">
         <v>1.7015888845939955E-3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="25">
         <v>1.3725108808073424E-4</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="25">
         <v>-2.6240086362088785E-6</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="25">
         <v>-2.8529812070904407E-4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="25">
         <v>-3.4966683432993077E-5</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="25">
         <v>2.2513022650286885E-4</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="25">
         <v>1.6434496232809565E-4</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="25">
         <v>-6.3409721327100632E-5</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="25">
         <v>2.255589041279587E-4</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="25">
         <v>1.2464392211008433E-4</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="25">
         <v>2.7406927807089221E-4</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="25">
         <v>-1.8518684056597243E-4</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="25">
         <v>-9.8458545392929222E-5</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="25">
         <v>-4.92546028942822E-5</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="25">
         <v>-3.7153077822145702E-5</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="25">
         <v>-9.3001144039126275E-5</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="25">
         <v>-1.0868280413373638E-4</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="25">
         <v>-2.8142918558288611E-5</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="25">
         <v>-2.1828303530848047E-4</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="25">
         <v>-5.2568673239317739E-4</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="25">
         <v>1.07976708540469E-5</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="25">
         <v>2.7218444335026641E-5</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="25">
         <v>1.1782987276393075E-5</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="25">
         <v>-2.4255406679104512E-3</v>
       </c>
     </row>
@@ -6985,79 +6982,79 @@
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="25">
         <v>-0.65256165499519792</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="25">
         <v>1.3725108808073424E-4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="25">
         <v>2.2927150271831245E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="25">
         <v>-4.2857447108404052E-5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="25">
         <v>3.4441864121834143E-4</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="25">
         <v>6.6592968666241183E-4</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="25">
         <v>1.2677164207537223E-3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="25">
         <v>6.957704527277668E-4</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="25">
         <v>1.6606149375352538E-4</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="25">
         <v>-4.1434955022574181E-4</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="25">
         <v>-2.2904875698812532E-5</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="25">
         <v>4.3532168754123295E-4</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="25">
         <v>-2.1352013804951629E-5</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="25">
         <v>4.5673190878646724E-4</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="25">
         <v>1.4032546201958682E-4</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="25">
         <v>6.3979834987990675E-5</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="25">
         <v>1.1550199242805646E-4</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="25">
         <v>4.1361036631975406E-5</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="25">
         <v>2.7497061557287249E-4</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="25">
         <v>8.2359504884254794E-5</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="25">
         <v>4.5702769113159861E-4</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="25">
         <v>8.7911573919935426E-4</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="25">
         <v>-1.833638173539074E-4</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="25">
         <v>4.4414555676991507E-5</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="25">
         <v>-3.0680510027793956E-2</v>
       </c>
     </row>
@@ -7065,79 +7062,79 @@
       <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="25">
         <v>1.0154081768273281E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="25">
         <v>-2.6240086362088785E-6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="25">
         <v>-4.2857447108404052E-5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="25">
         <v>8.0867294805951264E-7</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="25">
         <v>-4.4233520216489401E-6</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="25">
         <v>-9.6526206298138664E-6</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="25">
         <v>-2.1799796142691885E-5</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="25">
         <v>-1.2063698652978213E-5</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="25">
         <v>-3.2884883732769281E-6</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="25">
         <v>6.8604195917010146E-6</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="25">
         <v>8.2291800761347545E-7</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="25">
         <v>-7.7373455874500793E-6</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="25">
         <v>-3.9390019644404688E-7</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="25">
         <v>-8.4394665840813806E-6</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="25">
         <v>-3.4701541502354965E-6</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="25">
         <v>-1.4380084825889078E-6</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="25">
         <v>-2.8417892568625324E-6</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="25">
         <v>-1.3548108600620792E-6</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="25">
         <v>-5.5418404149012705E-6</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="25">
         <v>-1.9023792491266062E-6</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="25">
         <v>-7.0600482930148543E-6</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="25">
         <v>-1.7066555745213021E-5</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="25">
         <v>2.84427283414986E-6</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="25">
         <v>-8.3754712588214562E-7</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="25">
         <v>5.6750877986327768E-4</v>
       </c>
     </row>
@@ -7145,79 +7142,79 @@
       <c r="A5" t="s">
         <v>63</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="25">
         <v>-3.9860561668673529E-2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="25">
         <v>-2.8529812070904407E-4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="25">
         <v>3.4441864121834143E-4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="25">
         <v>-4.4233520216489401E-6</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="25">
         <v>3.7815854486860268E-3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="25">
         <v>3.846541429518598E-3</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="25">
         <v>-1.1473194610956132E-4</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="25">
         <v>-3.7935510139709087E-4</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="25">
         <v>-1.132608458126678E-4</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="25">
         <v>2.0566487216078379E-4</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="25">
         <v>-3.4815326108692327E-4</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="25">
         <v>-7.3982130363742108E-4</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="25">
         <v>-3.9455552837927587E-4</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="25">
         <v>-5.1583493205040502E-4</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="25">
         <v>-5.8056649943506082E-4</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="25">
         <v>-6.4988495863781441E-4</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="25">
         <v>-4.8872299654842204E-4</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="25">
         <v>-6.4638106503292915E-4</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="25">
         <v>-3.4621956652593254E-4</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="25">
         <v>-3.2919300838930377E-4</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="25">
         <v>2.1329573569200911E-4</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="25">
         <v>-2.8963710510932026E-4</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="25">
         <v>-5.5354307950471453E-4</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="25">
         <v>-8.3055334261009615E-6</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="25">
         <v>-7.3239673226412477E-3</v>
       </c>
     </row>
@@ -7225,79 +7222,79 @@
       <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="25">
         <v>-0.20179529393574946</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="25">
         <v>-3.4966683432993077E-5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="25">
         <v>6.6592968666241183E-4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="25">
         <v>-9.6526206298138664E-6</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="25">
         <v>3.846541429518598E-3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="25">
         <v>1.371312982313953E-2</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="25">
         <v>3.3670986917832689E-5</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="25">
         <v>-2.9798392180914392E-4</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="25">
         <v>-3.6401251366817813E-4</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="25">
         <v>-3.2873699236667971E-4</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="25">
         <v>-4.0525635013890669E-4</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="25">
         <v>-8.0631328520935951E-4</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="25">
         <v>-4.2724001368417571E-4</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="25">
         <v>1.2397587723477076E-3</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="25">
         <v>-6.0815480591771718E-4</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="25">
         <v>-5.0564422485884939E-4</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="25">
         <v>-6.6356398821766649E-4</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="25">
         <v>-9.7025974384637686E-4</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="25">
         <v>-3.4838340834716176E-4</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="25">
         <v>-1.2594232839430348E-4</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="25">
         <v>2.2780275559413678E-4</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="25">
         <v>-1.9135151690613268E-4</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="25">
         <v>-1.1567273185446383E-3</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="25">
         <v>5.6658892155659691E-5</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="25">
         <v>-1.3304483028293707E-2</v>
       </c>
     </row>
@@ -7305,79 +7302,79 @@
       <c r="A7" t="s">
         <v>65</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="25">
         <v>-1.1578010864870911</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="25">
         <v>2.2513022650286885E-4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="25">
         <v>1.2677164207537223E-3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="25">
         <v>-2.1799796142691885E-5</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="25">
         <v>-1.1473194610956132E-4</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="25">
         <v>3.3670986917832689E-5</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="25">
         <v>4.6168274025779159E-3</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="25">
         <v>1.7941097936171333E-3</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="25">
         <v>-3.3762166930549414E-4</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="25">
         <v>2.0736929638190838E-4</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="25">
         <v>5.2812164378885469E-4</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="25">
         <v>9.0840035713587834E-4</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="25">
         <v>-2.1955205549236984E-4</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="25">
         <v>4.8086515101431956E-4</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="25">
         <v>1.2646261871128569E-4</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="25">
         <v>1.7429390795552745E-4</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="25">
         <v>-1.2603814636529659E-4</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="25">
         <v>2.2087620655502922E-4</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="25">
         <v>2.9545317638445743E-4</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="25">
         <v>3.1479709646340011E-5</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="25">
         <v>7.972554861306394E-6</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="25">
         <v>4.521508531641228E-4</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="25">
         <v>-2.024551725107902E-4</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="25">
         <v>1.4277389611808892E-5</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="25">
         <v>-1.8810521777396921E-2</v>
       </c>
     </row>
@@ -7385,79 +7382,79 @@
       <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="25">
         <v>7.6694372644113093E-2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="25">
         <v>1.6434496232809565E-4</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="25">
         <v>6.957704527277668E-4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="25">
         <v>-1.2063698652978213E-5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="25">
         <v>-3.7935510139709087E-4</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="25">
         <v>-2.9798392180914392E-4</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="25">
         <v>1.7941097936171333E-3</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="25">
         <v>2.8200293382987822E-3</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="25">
         <v>-2.3223301228248572E-4</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="25">
         <v>-2.5687543034368543E-4</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="25">
         <v>7.115648509085348E-5</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="25">
         <v>2.0148031387138545E-4</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="25">
         <v>-3.180315863220368E-5</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="25">
         <v>4.4916491976963735E-4</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="25">
         <v>3.1629900082423898E-4</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="25">
         <v>2.1849724451546268E-4</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="25">
         <v>1.0291597087540499E-4</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="25">
         <v>3.9227031414154644E-4</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="25">
         <v>3.3071008631440165E-4</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="25">
         <v>1.6367350150356895E-4</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="25">
         <v>-4.1350341070338879E-4</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="25">
         <v>5.7233236843847683E-4</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="25">
         <v>5.9942582227550788E-6</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="25">
         <v>-1.0175843980924783E-5</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="25">
         <v>-1.000691154754238E-2</v>
       </c>
     </row>
@@ -7465,79 +7462,79 @@
       <c r="A9" t="s">
         <v>67</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="25">
         <v>5.5116860462316578E-2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="25">
         <v>-6.3409721327100632E-5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="25">
         <v>1.6606149375352538E-4</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="25">
         <v>-3.2884883732769281E-6</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="25">
         <v>-1.132608458126678E-4</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="25">
         <v>-3.6401251366817813E-4</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="25">
         <v>-3.3762166930549414E-4</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="25">
         <v>-2.3223301228248572E-4</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="25">
         <v>4.2476032092709148E-4</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="25">
         <v>-4.7899930912349625E-4</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="25">
         <v>-8.0519748277589609E-5</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="25">
         <v>-6.6461023159518546E-5</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="25">
         <v>7.8073931238424138E-5</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="25">
         <v>2.0245220919571055E-5</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="25">
         <v>1.2032401774755611E-4</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="25">
         <v>1.9010534697422088E-4</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="25">
         <v>1.1708406848232996E-4</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="25">
         <v>8.1619516466128903E-5</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="25">
         <v>1.49209536103706E-4</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="25">
         <v>9.3763771012558286E-5</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="25">
         <v>5.0085707653012876E-4</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="25">
         <v>1.8745047710747162E-5</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="25">
         <v>6.5096399023593845E-5</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="25">
         <v>2.3623460270961116E-6</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="25">
         <v>-2.1529799454289289E-3</v>
       </c>
     </row>
@@ -7545,79 +7542,79 @@
       <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="25">
         <v>-0.14002836163996574</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="25">
         <v>2.255589041279587E-4</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="25">
         <v>-4.1434955022574181E-4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="25">
         <v>6.8604195917010146E-6</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="25">
         <v>2.0566487216078379E-4</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="25">
         <v>-3.2873699236667971E-4</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="25">
         <v>2.0736929638190838E-4</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="25">
         <v>-2.5687543034368543E-4</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="25">
         <v>-4.7899930912349625E-4</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="25">
         <v>4.1614893046690252E-3</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="25">
         <v>9.0690557677783389E-5</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="25">
         <v>-2.531749947291711E-4</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="25">
         <v>-2.7872927074296464E-4</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="25">
         <v>-1.1313804842758035E-4</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="25">
         <v>1.6176235485698242E-4</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="25">
         <v>-3.727105550735603E-4</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="25">
         <v>-3.3095211239885956E-5</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="25">
         <v>1.3147637049267457E-4</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="25">
         <v>-2.5630999749340914E-4</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="25">
         <v>-2.9175042487293026E-4</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="25">
         <v>-1.1622898097649109E-3</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="25">
         <v>2.6599465698443027E-4</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="25">
         <v>-2.5105392201745153E-4</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="25">
         <v>6.3532852139366815E-5</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="25">
         <v>4.6194632338603658E-3</v>
       </c>
     </row>
@@ -7625,79 +7622,79 @@
       <c r="A11" t="s">
         <v>143</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="25">
         <v>-0.34356872387931309</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="25">
         <v>1.2464392211008433E-4</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="25">
         <v>-2.2904875698812532E-5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="25">
         <v>8.2291800761347545E-7</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="25">
         <v>-3.4815326108692327E-4</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="25">
         <v>-4.0525635013890669E-4</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="25">
         <v>5.2812164378885469E-4</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="25">
         <v>7.115648509085348E-5</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="25">
         <v>-8.0519748277589609E-5</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="25">
         <v>9.0690557677783389E-5</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="25">
         <v>3.340182872152916E-3</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="25">
         <v>2.9646517447074854E-3</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="25">
         <v>-1.0215314727832111E-4</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="25">
         <v>3.0663753233707921E-4</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="25">
         <v>-1.5088823212309858E-5</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="25">
         <v>3.4886846078260978E-5</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="25">
         <v>-1.0200998620716131E-4</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="25">
         <v>-2.1416351897641519E-4</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="25">
         <v>1.8784545213272309E-4</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="25">
         <v>8.4953571662327472E-5</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="25">
         <v>-5.1763065742657546E-5</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="25">
         <v>3.236390033105089E-4</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="25">
         <v>-1.7308567913675455E-5</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="25">
         <v>5.2544842575245703E-6</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="25">
         <v>-2.6379093618582213E-3</v>
       </c>
     </row>
@@ -7705,79 +7702,79 @@
       <c r="A12" t="s">
         <v>144</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="25">
         <v>-0.4098811462231845</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="25">
         <v>2.7406927807089221E-4</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="25">
         <v>4.3532168754123295E-4</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="25">
         <v>-7.7373455874500793E-6</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="25">
         <v>-7.3982130363742108E-4</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="25">
         <v>-8.0631328520935951E-4</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="25">
         <v>9.0840035713587834E-4</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="25">
         <v>2.0148031387138545E-4</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="25">
         <v>-6.6461023159518546E-5</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="25">
         <v>-2.531749947291711E-4</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="25">
         <v>2.9646517447074854E-3</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="25">
         <v>5.5408195120960971E-3</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="25">
         <v>-9.2543516730859895E-5</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="25">
         <v>9.4435180441856362E-4</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="25">
         <v>-7.6386876494424007E-5</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="25">
         <v>3.0485556520903499E-4</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="25">
         <v>-3.7025456925710259E-5</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="25">
         <v>-9.9787901914152329E-5</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="25">
         <v>5.5712732426393204E-4</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="25">
         <v>2.5638324561553719E-4</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="25">
         <v>5.6443869187169796E-4</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="25">
         <v>1.0032523043572161E-3</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="25">
         <v>-1.8833571180154791E-4</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="25">
         <v>9.1994324071323908E-5</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="25">
         <v>-1.0060455310436799E-2</v>
       </c>
     </row>
@@ -7785,79 +7782,79 @@
       <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="25">
         <v>8.9930205013640588E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="25">
         <v>-1.8518684056597243E-4</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="25">
         <v>-2.1352013804951629E-5</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="25">
         <v>-3.9390019644404688E-7</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="25">
         <v>-3.9455552837927587E-4</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="25">
         <v>-4.2724001368417571E-4</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="25">
         <v>-2.1955205549236984E-4</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="25">
         <v>-3.180315863220368E-5</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="25">
         <v>7.8073931238424138E-5</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="25">
         <v>-2.7872927074296464E-4</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="25">
         <v>-1.0215314727832111E-4</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="25">
         <v>-9.2543516730859895E-5</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="25">
         <v>1.0146292571219812E-2</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="25">
         <v>3.226694470596658E-3</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="25">
         <v>3.2918368424121307E-3</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="25">
         <v>3.2817683475305798E-3</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="25">
         <v>3.371227717244657E-3</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="25">
         <v>3.3753066561186735E-3</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="25">
         <v>3.2951182613706023E-3</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="25">
         <v>3.3295779594035577E-3</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="25">
         <v>3.4226098569457714E-3</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="25">
         <v>3.2541695135534831E-3</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="25">
         <v>3.3490538446443148E-3</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="25">
         <v>-4.7089675917983181E-5</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="25">
         <v>-1.3951013782035355E-3</v>
       </c>
     </row>
@@ -7865,79 +7862,79 @@
       <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="25">
         <v>-0.15817571389004698</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="25">
         <v>-9.8458545392929222E-5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="25">
         <v>4.5673190878646724E-4</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="25">
         <v>-8.4394665840813806E-6</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="25">
         <v>-5.1583493205040502E-4</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="25">
         <v>1.2397587723477076E-3</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="25">
         <v>4.8086515101431956E-4</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="25">
         <v>4.4916491976963735E-4</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="25">
         <v>2.0245220919571055E-5</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="25">
         <v>-1.1313804842758035E-4</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="25">
         <v>3.0663753233707921E-4</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="25">
         <v>9.4435180441856362E-4</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="25">
         <v>3.226694470596658E-3</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="25">
         <v>7.5281210074508312E-3</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="25">
         <v>3.3176864671396467E-3</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="25">
         <v>3.4301050647980963E-3</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="25">
         <v>3.3387812610480134E-3</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="25">
         <v>3.3914644521629133E-3</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="25">
         <v>3.4894830238709628E-3</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="25">
         <v>3.4731375493095413E-3</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="25">
         <v>3.5277572732164862E-3</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="25">
         <v>3.4593586774842844E-3</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="25">
         <v>3.2677651115009384E-3</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="25">
         <v>6.4008303492994029E-5</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="25">
         <v>-1.0453845533536895E-2</v>
       </c>
     </row>
@@ -7945,79 +7942,79 @@
       <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="25">
         <v>-0.19902974165342746</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="25">
         <v>-4.92546028942822E-5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="25">
         <v>1.4032546201958682E-4</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="25">
         <v>-3.4701541502354965E-6</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="25">
         <v>-5.8056649943506082E-4</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="25">
         <v>-6.0815480591771718E-4</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="25">
         <v>1.2646261871128569E-4</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="25">
         <v>3.1629900082423898E-4</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="25">
         <v>1.2032401774755611E-4</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="25">
         <v>1.6176235485698242E-4</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="25">
         <v>-1.5088823212309858E-5</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="25">
         <v>-7.6386876494424007E-5</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="25">
         <v>3.2918368424121307E-3</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="25">
         <v>3.3176864671396467E-3</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="25">
         <v>8.0045588315381267E-3</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="25">
         <v>3.2908510281437465E-3</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="25">
         <v>3.3352350461384019E-3</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="25">
         <v>3.3354734077617699E-3</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="25">
         <v>3.2933402446549622E-3</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="25">
         <v>3.2933255184870664E-3</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="25">
         <v>3.4625935230542275E-3</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="25">
         <v>3.2980019206597833E-3</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="25">
         <v>3.301996734873669E-3</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="25">
         <v>1.4735266172636382E-5</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="25">
         <v>-4.5471328425719208E-3</v>
       </c>
     </row>
@@ -8025,79 +8022,79 @@
       <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="25">
         <v>-0.28635494226982494</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="25">
         <v>-3.7153077822145702E-5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="25">
         <v>6.3979834987990675E-5</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="25">
         <v>-1.4380084825889078E-6</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="25">
         <v>-6.4988495863781441E-4</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="25">
         <v>-5.0564422485884939E-4</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="25">
         <v>1.7429390795552745E-4</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="25">
         <v>2.1849724451546268E-4</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="25">
         <v>1.9010534697422088E-4</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="25">
         <v>-3.727105550735603E-4</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="25">
         <v>3.4886846078260978E-5</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="25">
         <v>3.0485556520903499E-4</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="25">
         <v>3.2817683475305798E-3</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="25">
         <v>3.4301050647980963E-3</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="25">
         <v>3.2908510281437465E-3</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="25">
         <v>7.6596668569916641E-3</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="25">
         <v>3.3669026740094751E-3</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="25">
         <v>3.3355225602167277E-3</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="25">
         <v>3.3475168744565311E-3</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="25">
         <v>3.3401230030831921E-3</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="25">
         <v>3.6171678624433504E-3</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="25">
         <v>3.4137953517816926E-3</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="25">
         <v>3.3087835698453879E-3</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="25">
         <v>-2.0467078196424588E-5</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="25">
         <v>-3.4379843861617326E-3</v>
       </c>
     </row>
@@ -8105,79 +8102,79 @@
       <c r="A17" t="s">
         <v>48</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="25">
         <v>7.8023757305989802E-2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="25">
         <v>-9.3001144039126275E-5</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="25">
         <v>1.1550199242805646E-4</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="25">
         <v>-2.8417892568625324E-6</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="25">
         <v>-4.8872299654842204E-4</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="25">
         <v>-6.6356398821766649E-4</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="25">
         <v>-1.2603814636529659E-4</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="25">
         <v>1.0291597087540499E-4</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="25">
         <v>1.1708406848232996E-4</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="25">
         <v>-3.3095211239885956E-5</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="25">
         <v>-1.0200998620716131E-4</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="25">
         <v>-3.7025456925710259E-5</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="25">
         <v>3.371227717244657E-3</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="25">
         <v>3.3387812610480134E-3</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="25">
         <v>3.3352350461384019E-3</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="25">
         <v>3.3669026740094751E-3</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="25">
         <v>7.3060889753039761E-3</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="25">
         <v>3.3778422882468841E-3</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="25">
         <v>3.3516399198216681E-3</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="25">
         <v>3.35423457659801E-3</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="25">
         <v>3.4917165123531562E-3</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="25">
         <v>3.3472958974853804E-3</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="25">
         <v>3.373909773517288E-3</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="25">
         <v>3.2730965582197742E-6</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="25">
         <v>-4.0828555161821281E-3</v>
       </c>
     </row>
@@ -8185,79 +8182,79 @@
       <c r="A18" t="s">
         <v>49</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="25">
         <v>-0.18873872228131813</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="25">
         <v>-1.0868280413373638E-4</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="25">
         <v>4.1361036631975406E-5</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="25">
         <v>-1.3548108600620792E-6</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="25">
         <v>-6.4638106503292915E-4</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="25">
         <v>-9.7025974384637686E-4</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="25">
         <v>2.2087620655502922E-4</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="25">
         <v>3.9227031414154644E-4</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="25">
         <v>8.1619516466128903E-5</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="25">
         <v>1.3147637049267457E-4</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="25">
         <v>-2.1416351897641519E-4</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="25">
         <v>-9.9787901914152329E-5</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="25">
         <v>3.3753066561186735E-3</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="25">
         <v>3.3914644521629133E-3</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="25">
         <v>3.3354734077617699E-3</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="25">
         <v>3.3355225602167277E-3</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="25">
         <v>3.3778422882468841E-3</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="25">
         <v>7.3969361106132839E-3</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="25">
         <v>3.3604286338967627E-3</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="25">
         <v>3.348802313775494E-3</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="25">
         <v>3.4424434609729875E-3</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="25">
         <v>3.4110281673731977E-3</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="25">
         <v>3.351875032356318E-3</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="25">
         <v>-3.800299097999646E-5</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="25">
         <v>-2.4204761063953001E-3</v>
       </c>
     </row>
@@ -8265,79 +8262,79 @@
       <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="25">
         <v>-0.15894510601468753</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="25">
         <v>-2.8142918558288611E-5</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="25">
         <v>2.7497061557287249E-4</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="25">
         <v>-5.5418404149012705E-6</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="25">
         <v>-3.4621956652593254E-4</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="25">
         <v>-3.4838340834716176E-4</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="25">
         <v>2.9545317638445743E-4</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="25">
         <v>3.3071008631440165E-4</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="25">
         <v>1.49209536103706E-4</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="25">
         <v>-2.5630999749340914E-4</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="25">
         <v>1.8784545213272309E-4</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="25">
         <v>5.5712732426393204E-4</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="25">
         <v>3.2951182613706023E-3</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="25">
         <v>3.4894830238709628E-3</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="25">
         <v>3.2933402446549622E-3</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="25">
         <v>3.3475168744565311E-3</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="25">
         <v>3.3516399198216681E-3</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="25">
         <v>3.3604286338967627E-3</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="25">
         <v>6.1981482880477234E-3</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="25">
         <v>3.3546112176264138E-3</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="25">
         <v>3.528900972510008E-3</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="25">
         <v>3.4586726185169116E-3</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="25">
         <v>3.227067398844282E-3</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="25">
         <v>-3.0521895668100615E-5</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="25">
         <v>-6.312444501618962E-3</v>
       </c>
     </row>
@@ -8345,79 +8342,79 @@
       <c r="A20" t="s">
         <v>51</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="25">
         <v>-0.28780619107768368</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="25">
         <v>-2.1828303530848047E-4</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="25">
         <v>8.2359504884254794E-5</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="25">
         <v>-1.9023792491266062E-6</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="25">
         <v>-3.2919300838930377E-4</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="25">
         <v>-1.2594232839430348E-4</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="25">
         <v>3.1479709646340011E-5</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="25">
         <v>1.6367350150356895E-4</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="25">
         <v>9.3763771012558286E-5</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="25">
         <v>-2.9175042487293026E-4</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="25">
         <v>8.4953571662327472E-5</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="25">
         <v>2.5638324561553719E-4</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="25">
         <v>3.3295779594035577E-3</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="25">
         <v>3.4731375493095413E-3</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="25">
         <v>3.2933255184870664E-3</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="25">
         <v>3.3401230030831921E-3</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="25">
         <v>3.35423457659801E-3</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="25">
         <v>3.348802313775494E-3</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="25">
         <v>3.3546112176264138E-3</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="25">
         <v>7.8541748863150702E-3</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="25">
         <v>3.5804828554357559E-3</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="25">
         <v>3.42782437932316E-3</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="25">
         <v>3.2636319204168564E-3</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="25">
         <v>-4.7600812262649602E-6</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="25">
         <v>-3.9597519382081475E-3</v>
       </c>
     </row>
@@ -8425,79 +8422,79 @@
       <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="25">
         <v>-0.17382030825426378</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="25">
         <v>-5.2568673239317739E-4</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="25">
         <v>4.5702769113159861E-4</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="25">
         <v>-7.0600482930148543E-6</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="25">
         <v>2.1329573569200911E-4</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="25">
         <v>2.2780275559413678E-4</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="25">
         <v>7.972554861306394E-6</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="25">
         <v>-4.1350341070338879E-4</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="25">
         <v>5.0085707653012876E-4</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="25">
         <v>-1.1622898097649109E-3</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="25">
         <v>-5.1763065742657546E-5</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="25">
         <v>5.6443869187169796E-4</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="25">
         <v>3.4226098569457714E-3</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="25">
         <v>3.5277572732164862E-3</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="25">
         <v>3.4625935230542275E-3</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="25">
         <v>3.6171678624433504E-3</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="25">
         <v>3.4917165123531562E-3</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="25">
         <v>3.4424434609729875E-3</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="25">
         <v>3.528900972510008E-3</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="25">
         <v>3.5804828554357559E-3</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="25">
         <v>1.8558959688181657E-2</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="25">
         <v>3.426629476958569E-3</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="25">
         <v>3.3742207523942179E-3</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="25">
         <v>8.1765511882469477E-5</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="25">
         <v>-1.1587172195334661E-2</v>
       </c>
     </row>
@@ -8505,79 +8502,79 @@
       <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="25">
         <v>0.16497554703951572</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="25">
         <v>1.07976708540469E-5</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="25">
         <v>8.7911573919935426E-4</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="25">
         <v>-1.7066555745213021E-5</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="25">
         <v>-2.8963710510932026E-4</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="25">
         <v>-1.9135151690613268E-4</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="25">
         <v>4.521508531641228E-4</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="25">
         <v>5.7233236843847683E-4</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="25">
         <v>1.8745047710747162E-5</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="25">
         <v>2.6599465698443027E-4</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="25">
         <v>3.236390033105089E-4</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="25">
         <v>1.0032523043572161E-3</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="25">
         <v>3.2541695135534831E-3</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="25">
         <v>3.4593586774842844E-3</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="25">
         <v>3.2980019206597833E-3</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="25">
         <v>3.4137953517816926E-3</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="25">
         <v>3.3472958974853804E-3</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="25">
         <v>3.4110281673731977E-3</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="25">
         <v>3.4586726185169116E-3</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="25">
         <v>3.42782437932316E-3</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="25">
         <v>3.426629476958569E-3</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="25">
         <v>9.558226789450527E-3</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="25">
         <v>3.2517409443712929E-3</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="25">
         <v>9.4564107242971378E-5</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="25">
         <v>-1.6126230233396453E-2</v>
       </c>
     </row>
@@ -8585,79 +8582,79 @@
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="25">
         <v>7.2535872664028556E-2</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="25">
         <v>2.7218444335026641E-5</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="25">
         <v>-1.833638173539074E-4</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="25">
         <v>2.84427283414986E-6</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="25">
         <v>-5.5354307950471453E-4</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="25">
         <v>-1.1567273185446383E-3</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="25">
         <v>-2.024551725107902E-4</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="25">
         <v>5.9942582227550788E-6</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="25">
         <v>6.5096399023593845E-5</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="25">
         <v>-2.5105392201745153E-4</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="25">
         <v>-1.7308567913675455E-5</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="25">
         <v>-1.8833571180154791E-4</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="25">
         <v>3.3490538446443148E-3</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="25">
         <v>3.2677651115009384E-3</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="25">
         <v>3.301996734873669E-3</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="25">
         <v>3.3087835698453879E-3</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="25">
         <v>3.373909773517288E-3</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="25">
         <v>3.351875032356318E-3</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="25">
         <v>3.227067398844282E-3</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="25">
         <v>3.2636319204168564E-3</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="25">
         <v>3.3742207523942179E-3</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="25">
         <v>3.2517409443712929E-3</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="25">
         <v>1.0629971708148658E-2</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="25">
         <v>1.8382991246653726E-5</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="25">
         <v>-4.3263767816397857E-4</v>
       </c>
     </row>
@@ -8665,79 +8662,79 @@
       <c r="A24" t="s">
         <v>116</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="25">
         <v>5.0938436383108797E-3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="25">
         <v>1.1782987276393075E-5</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="25">
         <v>4.4414555676991507E-5</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="25">
         <v>-8.3754712588214562E-7</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="25">
         <v>-8.3055334261009615E-6</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="25">
         <v>5.6658892155659691E-5</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="25">
         <v>1.4277389611808892E-5</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="25">
         <v>-1.0175843980924783E-5</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="25">
         <v>2.3623460270961116E-6</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="25">
         <v>6.3532852139366815E-5</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="25">
         <v>5.2544842575245703E-6</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="25">
         <v>9.1994324071323908E-5</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="25">
         <v>-4.7089675917983181E-5</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="25">
         <v>6.4008303492994029E-5</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="25">
         <v>1.4735266172636382E-5</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="25">
         <v>-2.0467078196424588E-5</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="25">
         <v>3.2730965582197742E-6</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="25">
         <v>-3.800299097999646E-5</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="25">
         <v>-3.0521895668100615E-5</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="25">
         <v>-4.7600812262649602E-6</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="25">
         <v>8.1765511882469477E-5</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="25">
         <v>9.4564107242971378E-5</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="25">
         <v>1.8382991246653726E-5</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="25">
         <v>4.5216905091776519E-5</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="25">
         <v>-1.2948756174171044E-3</v>
       </c>
     </row>
@@ -8745,79 +8742,79 @@
       <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="25">
         <v>8.2732668862811209</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="25">
         <v>-2.4255406679104512E-3</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="25">
         <v>-3.0680510027793956E-2</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="25">
         <v>5.6750877986327768E-4</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="25">
         <v>-7.3239673226412477E-3</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="25">
         <v>-1.3304483028293707E-2</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="25">
         <v>-1.8810521777396921E-2</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="25">
         <v>-1.000691154754238E-2</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="25">
         <v>-2.1529799454289289E-3</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="25">
         <v>4.6194632338603658E-3</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="25">
         <v>-2.6379093618582213E-3</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="25">
         <v>-1.0060455310436799E-2</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="25">
         <v>-1.3951013782035355E-3</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="25">
         <v>-1.0453845533536895E-2</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="25">
         <v>-4.5471328425719208E-3</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="25">
         <v>-3.4379843861617326E-3</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="25">
         <v>-4.0828555161821281E-3</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="25">
         <v>-2.4204761063953001E-3</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="25">
         <v>-6.312444501618962E-3</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="25">
         <v>-3.9597519382081475E-3</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="25">
         <v>-1.1587172195334661E-2</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="25">
         <v>-1.6126230233396453E-2</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="25">
         <v>-4.3263767816397857E-4</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="25">
         <v>-1.2948756174171044E-3</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="25">
         <v>0.43353698379064198</v>
       </c>
     </row>
@@ -8836,14 +8833,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1285CCF6-ED07-4956-95C1-5161D138438C}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="21" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -10178,14 +10173,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>132</v>
       </c>
     </row>
@@ -10444,16 +10439,16 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="20">
         <v>5.9691530000000004</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="20">
         <v>0.66896920000000004</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="21">
         <v>0</v>
       </c>
     </row>
@@ -10461,7 +10456,7 @@
       <c r="A23" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23">
         <v>16615</v>
       </c>
     </row>
@@ -10469,19 +10464,19 @@
       <c r="A24" t="s">
         <v>134</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="2">
         <v>0.30330000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="22">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -10508,14 +10503,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>132</v>
       </c>
     </row>
@@ -10874,16 +10869,16 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="20">
         <v>8.2732670000000006</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="20">
         <v>0.65843529999999995</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="21">
         <v>0</v>
       </c>
     </row>
@@ -10891,7 +10886,7 @@
       <c r="A31" t="s">
         <v>133</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31">
         <v>96485</v>
       </c>
     </row>
@@ -10899,19 +10894,19 @@
       <c r="A32" t="s">
         <v>134</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="2">
         <v>2.5499999999999998E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="22">
         <v>0.22309999999999999</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -10937,14 +10932,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>132</v>
       </c>
     </row>
@@ -11189,21 +11184,21 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="20">
         <v>2.4429999999999998E-4</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="20">
         <v>8.3604000000000005E-3</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="21">
         <v>0.03</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" t="s">
         <v>150</v>
       </c>
       <c r="B22" s="2">
@@ -11215,34 +11210,34 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="20">
         <v>27.129180000000002</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="20">
         <v>1.8153790000000001</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24">
         <v>5039</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="22">
         <v>0.3589</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>

--- a/input/reg_education.xlsx
+++ b/input/reg_education.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\data work\regression_estimates\reg files\revised\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE2EFB6-F4C1-4593-8B5C-4A00789598DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3196A4D3-8573-4042-ACCC-046101B8864B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="919" activeTab="3" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="919" activeTab="1" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -29,18 +29,10 @@
     <sheet name="IT_Process E1b - Breaks" sheetId="43" r:id="rId14"/>
     <sheet name="IT_Process E2 - Education Level" sheetId="44" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -519,7 +511,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,16 +530,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -624,7 +606,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -645,9 +627,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -662,7 +642,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,9 +663,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -724,7 +703,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -830,7 +809,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -972,7 +951,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1026,10 +1005,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3605,29 +3584,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="I1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4093,29 +4072,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="I1" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -4735,29 +4714,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="I1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -5605,10 +5584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ED3F4A-E6FE-4140-8298-230560D8220D}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6795,12 +6774,6 @@
         <v>0.44751981756894665</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6808,9 +6781,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D54BEF-A785-4097-B447-1AE751D019CE}">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6902,79 +6877,79 @@
       <c r="A2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2">
         <v>-0.14485449357323898</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2">
         <v>1.7015888845939955E-3</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2">
         <v>1.3725108808073424E-4</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2">
         <v>-2.6240086362088785E-6</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2">
         <v>-2.8529812070904407E-4</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2">
         <v>-3.4966683432993077E-5</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2">
         <v>2.2513022650286885E-4</v>
       </c>
-      <c r="I2" s="25">
+      <c r="I2">
         <v>1.6434496232809565E-4</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2">
         <v>-6.3409721327100632E-5</v>
       </c>
-      <c r="K2" s="25">
+      <c r="K2">
         <v>2.255589041279587E-4</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2">
         <v>1.2464392211008433E-4</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2">
         <v>2.7406927807089221E-4</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2">
         <v>-1.8518684056597243E-4</v>
       </c>
-      <c r="O2" s="25">
+      <c r="O2">
         <v>-9.8458545392929222E-5</v>
       </c>
-      <c r="P2" s="25">
+      <c r="P2">
         <v>-4.92546028942822E-5</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="Q2">
         <v>-3.7153077822145702E-5</v>
       </c>
-      <c r="R2" s="25">
+      <c r="R2">
         <v>-9.3001144039126275E-5</v>
       </c>
-      <c r="S2" s="25">
+      <c r="S2">
         <v>-1.0868280413373638E-4</v>
       </c>
-      <c r="T2" s="25">
+      <c r="T2">
         <v>-2.8142918558288611E-5</v>
       </c>
-      <c r="U2" s="25">
+      <c r="U2">
         <v>-2.1828303530848047E-4</v>
       </c>
-      <c r="V2" s="25">
+      <c r="V2">
         <v>-5.2568673239317739E-4</v>
       </c>
-      <c r="W2" s="25">
+      <c r="W2">
         <v>1.07976708540469E-5</v>
       </c>
-      <c r="X2" s="25">
+      <c r="X2">
         <v>2.7218444335026641E-5</v>
       </c>
-      <c r="Y2" s="25">
+      <c r="Y2">
         <v>1.1782987276393075E-5</v>
       </c>
-      <c r="Z2" s="25">
+      <c r="Z2">
         <v>-2.4255406679104512E-3</v>
       </c>
     </row>
@@ -6982,79 +6957,79 @@
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3">
         <v>-0.65256165499519792</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3">
         <v>1.3725108808073424E-4</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3">
         <v>2.2927150271831245E-3</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3">
         <v>-4.2857447108404052E-5</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3">
         <v>3.4441864121834143E-4</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3">
         <v>6.6592968666241183E-4</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3">
         <v>1.2677164207537223E-3</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3">
         <v>6.957704527277668E-4</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3">
         <v>1.6606149375352538E-4</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3">
         <v>-4.1434955022574181E-4</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3">
         <v>-2.2904875698812532E-5</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3">
         <v>4.3532168754123295E-4</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3">
         <v>-2.1352013804951629E-5</v>
       </c>
-      <c r="O3" s="25">
+      <c r="O3">
         <v>4.5673190878646724E-4</v>
       </c>
-      <c r="P3" s="25">
+      <c r="P3">
         <v>1.4032546201958682E-4</v>
       </c>
-      <c r="Q3" s="25">
+      <c r="Q3">
         <v>6.3979834987990675E-5</v>
       </c>
-      <c r="R3" s="25">
+      <c r="R3">
         <v>1.1550199242805646E-4</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3">
         <v>4.1361036631975406E-5</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3">
         <v>2.7497061557287249E-4</v>
       </c>
-      <c r="U3" s="25">
+      <c r="U3">
         <v>8.2359504884254794E-5</v>
       </c>
-      <c r="V3" s="25">
+      <c r="V3">
         <v>4.5702769113159861E-4</v>
       </c>
-      <c r="W3" s="25">
+      <c r="W3">
         <v>8.7911573919935426E-4</v>
       </c>
-      <c r="X3" s="25">
+      <c r="X3">
         <v>-1.833638173539074E-4</v>
       </c>
-      <c r="Y3" s="25">
+      <c r="Y3">
         <v>4.4414555676991507E-5</v>
       </c>
-      <c r="Z3" s="25">
+      <c r="Z3">
         <v>-3.0680510027793956E-2</v>
       </c>
     </row>
@@ -7062,79 +7037,79 @@
       <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4">
         <v>1.0154081768273281E-2</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4">
         <v>-2.6240086362088785E-6</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4">
         <v>-4.2857447108404052E-5</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4">
         <v>8.0867294805951264E-7</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4">
         <v>-4.4233520216489401E-6</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4">
         <v>-9.6526206298138664E-6</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4">
         <v>-2.1799796142691885E-5</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4">
         <v>-1.2063698652978213E-5</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4">
         <v>-3.2884883732769281E-6</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4">
         <v>6.8604195917010146E-6</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4">
         <v>8.2291800761347545E-7</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4">
         <v>-7.7373455874500793E-6</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4">
         <v>-3.9390019644404688E-7</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4">
         <v>-8.4394665840813806E-6</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4">
         <v>-3.4701541502354965E-6</v>
       </c>
-      <c r="Q4" s="25">
+      <c r="Q4">
         <v>-1.4380084825889078E-6</v>
       </c>
-      <c r="R4" s="25">
+      <c r="R4">
         <v>-2.8417892568625324E-6</v>
       </c>
-      <c r="S4" s="25">
+      <c r="S4">
         <v>-1.3548108600620792E-6</v>
       </c>
-      <c r="T4" s="25">
+      <c r="T4">
         <v>-5.5418404149012705E-6</v>
       </c>
-      <c r="U4" s="25">
+      <c r="U4">
         <v>-1.9023792491266062E-6</v>
       </c>
-      <c r="V4" s="25">
+      <c r="V4">
         <v>-7.0600482930148543E-6</v>
       </c>
-      <c r="W4" s="25">
+      <c r="W4">
         <v>-1.7066555745213021E-5</v>
       </c>
-      <c r="X4" s="25">
+      <c r="X4">
         <v>2.84427283414986E-6</v>
       </c>
-      <c r="Y4" s="25">
+      <c r="Y4">
         <v>-8.3754712588214562E-7</v>
       </c>
-      <c r="Z4" s="25">
+      <c r="Z4">
         <v>5.6750877986327768E-4</v>
       </c>
     </row>
@@ -7142,79 +7117,79 @@
       <c r="A5" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5">
         <v>-3.9860561668673529E-2</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5">
         <v>-2.8529812070904407E-4</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5">
         <v>3.4441864121834143E-4</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5">
         <v>-4.4233520216489401E-6</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5">
         <v>3.7815854486860268E-3</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5">
         <v>3.846541429518598E-3</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5">
         <v>-1.1473194610956132E-4</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5">
         <v>-3.7935510139709087E-4</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5">
         <v>-1.132608458126678E-4</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5">
         <v>2.0566487216078379E-4</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5">
         <v>-3.4815326108692327E-4</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5">
         <v>-7.3982130363742108E-4</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5">
         <v>-3.9455552837927587E-4</v>
       </c>
-      <c r="O5" s="25">
+      <c r="O5">
         <v>-5.1583493205040502E-4</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5">
         <v>-5.8056649943506082E-4</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5">
         <v>-6.4988495863781441E-4</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5">
         <v>-4.8872299654842204E-4</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5">
         <v>-6.4638106503292915E-4</v>
       </c>
-      <c r="T5" s="25">
+      <c r="T5">
         <v>-3.4621956652593254E-4</v>
       </c>
-      <c r="U5" s="25">
+      <c r="U5">
         <v>-3.2919300838930377E-4</v>
       </c>
-      <c r="V5" s="25">
+      <c r="V5">
         <v>2.1329573569200911E-4</v>
       </c>
-      <c r="W5" s="25">
+      <c r="W5">
         <v>-2.8963710510932026E-4</v>
       </c>
-      <c r="X5" s="25">
+      <c r="X5">
         <v>-5.5354307950471453E-4</v>
       </c>
-      <c r="Y5" s="25">
+      <c r="Y5">
         <v>-8.3055334261009615E-6</v>
       </c>
-      <c r="Z5" s="25">
+      <c r="Z5">
         <v>-7.3239673226412477E-3</v>
       </c>
     </row>
@@ -7222,79 +7197,79 @@
       <c r="A6" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6">
         <v>-0.20179529393574946</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6">
         <v>-3.4966683432993077E-5</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6">
         <v>6.6592968666241183E-4</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6">
         <v>-9.6526206298138664E-6</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6">
         <v>3.846541429518598E-3</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6">
         <v>1.371312982313953E-2</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6">
         <v>3.3670986917832689E-5</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6">
         <v>-2.9798392180914392E-4</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6">
         <v>-3.6401251366817813E-4</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6">
         <v>-3.2873699236667971E-4</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6">
         <v>-4.0525635013890669E-4</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6">
         <v>-8.0631328520935951E-4</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6">
         <v>-4.2724001368417571E-4</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6">
         <v>1.2397587723477076E-3</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6">
         <v>-6.0815480591771718E-4</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6">
         <v>-5.0564422485884939E-4</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6">
         <v>-6.6356398821766649E-4</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6">
         <v>-9.7025974384637686E-4</v>
       </c>
-      <c r="T6" s="25">
+      <c r="T6">
         <v>-3.4838340834716176E-4</v>
       </c>
-      <c r="U6" s="25">
+      <c r="U6">
         <v>-1.2594232839430348E-4</v>
       </c>
-      <c r="V6" s="25">
+      <c r="V6">
         <v>2.2780275559413678E-4</v>
       </c>
-      <c r="W6" s="25">
+      <c r="W6">
         <v>-1.9135151690613268E-4</v>
       </c>
-      <c r="X6" s="25">
+      <c r="X6">
         <v>-1.1567273185446383E-3</v>
       </c>
-      <c r="Y6" s="25">
+      <c r="Y6">
         <v>5.6658892155659691E-5</v>
       </c>
-      <c r="Z6" s="25">
+      <c r="Z6">
         <v>-1.3304483028293707E-2</v>
       </c>
     </row>
@@ -7302,79 +7277,79 @@
       <c r="A7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7">
         <v>-1.1578010864870911</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7">
         <v>2.2513022650286885E-4</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7">
         <v>1.2677164207537223E-3</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7">
         <v>-2.1799796142691885E-5</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7">
         <v>-1.1473194610956132E-4</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7">
         <v>3.3670986917832689E-5</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7">
         <v>4.6168274025779159E-3</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7">
         <v>1.7941097936171333E-3</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7">
         <v>-3.3762166930549414E-4</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7">
         <v>2.0736929638190838E-4</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7">
         <v>5.2812164378885469E-4</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7">
         <v>9.0840035713587834E-4</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7">
         <v>-2.1955205549236984E-4</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7">
         <v>4.8086515101431956E-4</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7">
         <v>1.2646261871128569E-4</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7">
         <v>1.7429390795552745E-4</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7">
         <v>-1.2603814636529659E-4</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S7">
         <v>2.2087620655502922E-4</v>
       </c>
-      <c r="T7" s="25">
+      <c r="T7">
         <v>2.9545317638445743E-4</v>
       </c>
-      <c r="U7" s="25">
+      <c r="U7">
         <v>3.1479709646340011E-5</v>
       </c>
-      <c r="V7" s="25">
+      <c r="V7">
         <v>7.972554861306394E-6</v>
       </c>
-      <c r="W7" s="25">
+      <c r="W7">
         <v>4.521508531641228E-4</v>
       </c>
-      <c r="X7" s="25">
+      <c r="X7">
         <v>-2.024551725107902E-4</v>
       </c>
-      <c r="Y7" s="25">
+      <c r="Y7">
         <v>1.4277389611808892E-5</v>
       </c>
-      <c r="Z7" s="25">
+      <c r="Z7">
         <v>-1.8810521777396921E-2</v>
       </c>
     </row>
@@ -7382,79 +7357,79 @@
       <c r="A8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8">
         <v>7.6694372644113093E-2</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8">
         <v>1.6434496232809565E-4</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8">
         <v>6.957704527277668E-4</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8">
         <v>-1.2063698652978213E-5</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8">
         <v>-3.7935510139709087E-4</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8">
         <v>-2.9798392180914392E-4</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8">
         <v>1.7941097936171333E-3</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8">
         <v>2.8200293382987822E-3</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8">
         <v>-2.3223301228248572E-4</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8">
         <v>-2.5687543034368543E-4</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8">
         <v>7.115648509085348E-5</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8">
         <v>2.0148031387138545E-4</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8">
         <v>-3.180315863220368E-5</v>
       </c>
-      <c r="O8" s="25">
+      <c r="O8">
         <v>4.4916491976963735E-4</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8">
         <v>3.1629900082423898E-4</v>
       </c>
-      <c r="Q8" s="25">
+      <c r="Q8">
         <v>2.1849724451546268E-4</v>
       </c>
-      <c r="R8" s="25">
+      <c r="R8">
         <v>1.0291597087540499E-4</v>
       </c>
-      <c r="S8" s="25">
+      <c r="S8">
         <v>3.9227031414154644E-4</v>
       </c>
-      <c r="T8" s="25">
+      <c r="T8">
         <v>3.3071008631440165E-4</v>
       </c>
-      <c r="U8" s="25">
+      <c r="U8">
         <v>1.6367350150356895E-4</v>
       </c>
-      <c r="V8" s="25">
+      <c r="V8">
         <v>-4.1350341070338879E-4</v>
       </c>
-      <c r="W8" s="25">
+      <c r="W8">
         <v>5.7233236843847683E-4</v>
       </c>
-      <c r="X8" s="25">
+      <c r="X8">
         <v>5.9942582227550788E-6</v>
       </c>
-      <c r="Y8" s="25">
+      <c r="Y8">
         <v>-1.0175843980924783E-5</v>
       </c>
-      <c r="Z8" s="25">
+      <c r="Z8">
         <v>-1.000691154754238E-2</v>
       </c>
     </row>
@@ -7462,79 +7437,79 @@
       <c r="A9" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9">
         <v>5.5116860462316578E-2</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9">
         <v>-6.3409721327100632E-5</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9">
         <v>1.6606149375352538E-4</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9">
         <v>-3.2884883732769281E-6</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9">
         <v>-1.132608458126678E-4</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9">
         <v>-3.6401251366817813E-4</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9">
         <v>-3.3762166930549414E-4</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9">
         <v>-2.3223301228248572E-4</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9">
         <v>4.2476032092709148E-4</v>
       </c>
-      <c r="K9" s="25">
+      <c r="K9">
         <v>-4.7899930912349625E-4</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9">
         <v>-8.0519748277589609E-5</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9">
         <v>-6.6461023159518546E-5</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9">
         <v>7.8073931238424138E-5</v>
       </c>
-      <c r="O9" s="25">
+      <c r="O9">
         <v>2.0245220919571055E-5</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9">
         <v>1.2032401774755611E-4</v>
       </c>
-      <c r="Q9" s="25">
+      <c r="Q9">
         <v>1.9010534697422088E-4</v>
       </c>
-      <c r="R9" s="25">
+      <c r="R9">
         <v>1.1708406848232996E-4</v>
       </c>
-      <c r="S9" s="25">
+      <c r="S9">
         <v>8.1619516466128903E-5</v>
       </c>
-      <c r="T9" s="25">
+      <c r="T9">
         <v>1.49209536103706E-4</v>
       </c>
-      <c r="U9" s="25">
+      <c r="U9">
         <v>9.3763771012558286E-5</v>
       </c>
-      <c r="V9" s="25">
+      <c r="V9">
         <v>5.0085707653012876E-4</v>
       </c>
-      <c r="W9" s="25">
+      <c r="W9">
         <v>1.8745047710747162E-5</v>
       </c>
-      <c r="X9" s="25">
+      <c r="X9">
         <v>6.5096399023593845E-5</v>
       </c>
-      <c r="Y9" s="25">
+      <c r="Y9">
         <v>2.3623460270961116E-6</v>
       </c>
-      <c r="Z9" s="25">
+      <c r="Z9">
         <v>-2.1529799454289289E-3</v>
       </c>
     </row>
@@ -7542,79 +7517,79 @@
       <c r="A10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10">
         <v>-0.14002836163996574</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10">
         <v>2.255589041279587E-4</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10">
         <v>-4.1434955022574181E-4</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10">
         <v>6.8604195917010146E-6</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10">
         <v>2.0566487216078379E-4</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10">
         <v>-3.2873699236667971E-4</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10">
         <v>2.0736929638190838E-4</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10">
         <v>-2.5687543034368543E-4</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10">
         <v>-4.7899930912349625E-4</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10">
         <v>4.1614893046690252E-3</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10">
         <v>9.0690557677783389E-5</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10">
         <v>-2.531749947291711E-4</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10">
         <v>-2.7872927074296464E-4</v>
       </c>
-      <c r="O10" s="25">
+      <c r="O10">
         <v>-1.1313804842758035E-4</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10">
         <v>1.6176235485698242E-4</v>
       </c>
-      <c r="Q10" s="25">
+      <c r="Q10">
         <v>-3.727105550735603E-4</v>
       </c>
-      <c r="R10" s="25">
+      <c r="R10">
         <v>-3.3095211239885956E-5</v>
       </c>
-      <c r="S10" s="25">
+      <c r="S10">
         <v>1.3147637049267457E-4</v>
       </c>
-      <c r="T10" s="25">
+      <c r="T10">
         <v>-2.5630999749340914E-4</v>
       </c>
-      <c r="U10" s="25">
+      <c r="U10">
         <v>-2.9175042487293026E-4</v>
       </c>
-      <c r="V10" s="25">
+      <c r="V10">
         <v>-1.1622898097649109E-3</v>
       </c>
-      <c r="W10" s="25">
+      <c r="W10">
         <v>2.6599465698443027E-4</v>
       </c>
-      <c r="X10" s="25">
+      <c r="X10">
         <v>-2.5105392201745153E-4</v>
       </c>
-      <c r="Y10" s="25">
+      <c r="Y10">
         <v>6.3532852139366815E-5</v>
       </c>
-      <c r="Z10" s="25">
+      <c r="Z10">
         <v>4.6194632338603658E-3</v>
       </c>
     </row>
@@ -7622,79 +7597,79 @@
       <c r="A11" t="s">
         <v>143</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11">
         <v>-0.34356872387931309</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11">
         <v>1.2464392211008433E-4</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11">
         <v>-2.2904875698812532E-5</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11">
         <v>8.2291800761347545E-7</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11">
         <v>-3.4815326108692327E-4</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11">
         <v>-4.0525635013890669E-4</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11">
         <v>5.2812164378885469E-4</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11">
         <v>7.115648509085348E-5</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11">
         <v>-8.0519748277589609E-5</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11">
         <v>9.0690557677783389E-5</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11">
         <v>3.340182872152916E-3</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11">
         <v>2.9646517447074854E-3</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11">
         <v>-1.0215314727832111E-4</v>
       </c>
-      <c r="O11" s="25">
+      <c r="O11">
         <v>3.0663753233707921E-4</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11">
         <v>-1.5088823212309858E-5</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="Q11">
         <v>3.4886846078260978E-5</v>
       </c>
-      <c r="R11" s="25">
+      <c r="R11">
         <v>-1.0200998620716131E-4</v>
       </c>
-      <c r="S11" s="25">
+      <c r="S11">
         <v>-2.1416351897641519E-4</v>
       </c>
-      <c r="T11" s="25">
+      <c r="T11">
         <v>1.8784545213272309E-4</v>
       </c>
-      <c r="U11" s="25">
+      <c r="U11">
         <v>8.4953571662327472E-5</v>
       </c>
-      <c r="V11" s="25">
+      <c r="V11">
         <v>-5.1763065742657546E-5</v>
       </c>
-      <c r="W11" s="25">
+      <c r="W11">
         <v>3.236390033105089E-4</v>
       </c>
-      <c r="X11" s="25">
+      <c r="X11">
         <v>-1.7308567913675455E-5</v>
       </c>
-      <c r="Y11" s="25">
+      <c r="Y11">
         <v>5.2544842575245703E-6</v>
       </c>
-      <c r="Z11" s="25">
+      <c r="Z11">
         <v>-2.6379093618582213E-3</v>
       </c>
     </row>
@@ -7702,79 +7677,79 @@
       <c r="A12" t="s">
         <v>144</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12">
         <v>-0.4098811462231845</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12">
         <v>2.7406927807089221E-4</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12">
         <v>4.3532168754123295E-4</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12">
         <v>-7.7373455874500793E-6</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12">
         <v>-7.3982130363742108E-4</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12">
         <v>-8.0631328520935951E-4</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12">
         <v>9.0840035713587834E-4</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12">
         <v>2.0148031387138545E-4</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12">
         <v>-6.6461023159518546E-5</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12">
         <v>-2.531749947291711E-4</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12">
         <v>2.9646517447074854E-3</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12">
         <v>5.5408195120960971E-3</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12">
         <v>-9.2543516730859895E-5</v>
       </c>
-      <c r="O12" s="25">
+      <c r="O12">
         <v>9.4435180441856362E-4</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P12">
         <v>-7.6386876494424007E-5</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="Q12">
         <v>3.0485556520903499E-4</v>
       </c>
-      <c r="R12" s="25">
+      <c r="R12">
         <v>-3.7025456925710259E-5</v>
       </c>
-      <c r="S12" s="25">
+      <c r="S12">
         <v>-9.9787901914152329E-5</v>
       </c>
-      <c r="T12" s="25">
+      <c r="T12">
         <v>5.5712732426393204E-4</v>
       </c>
-      <c r="U12" s="25">
+      <c r="U12">
         <v>2.5638324561553719E-4</v>
       </c>
-      <c r="V12" s="25">
+      <c r="V12">
         <v>5.6443869187169796E-4</v>
       </c>
-      <c r="W12" s="25">
+      <c r="W12">
         <v>1.0032523043572161E-3</v>
       </c>
-      <c r="X12" s="25">
+      <c r="X12">
         <v>-1.8833571180154791E-4</v>
       </c>
-      <c r="Y12" s="25">
+      <c r="Y12">
         <v>9.1994324071323908E-5</v>
       </c>
-      <c r="Z12" s="25">
+      <c r="Z12">
         <v>-1.0060455310436799E-2</v>
       </c>
     </row>
@@ -7782,79 +7757,79 @@
       <c r="A13" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13">
         <v>8.9930205013640588E-2</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13">
         <v>-1.8518684056597243E-4</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13">
         <v>-2.1352013804951629E-5</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13">
         <v>-3.9390019644404688E-7</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13">
         <v>-3.9455552837927587E-4</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13">
         <v>-4.2724001368417571E-4</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13">
         <v>-2.1955205549236984E-4</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13">
         <v>-3.180315863220368E-5</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13">
         <v>7.8073931238424138E-5</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13">
         <v>-2.7872927074296464E-4</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13">
         <v>-1.0215314727832111E-4</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13">
         <v>-9.2543516730859895E-5</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13">
         <v>1.0146292571219812E-2</v>
       </c>
-      <c r="O13" s="25">
+      <c r="O13">
         <v>3.226694470596658E-3</v>
       </c>
-      <c r="P13" s="25">
+      <c r="P13">
         <v>3.2918368424121307E-3</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="Q13">
         <v>3.2817683475305798E-3</v>
       </c>
-      <c r="R13" s="25">
+      <c r="R13">
         <v>3.371227717244657E-3</v>
       </c>
-      <c r="S13" s="25">
+      <c r="S13">
         <v>3.3753066561186735E-3</v>
       </c>
-      <c r="T13" s="25">
+      <c r="T13">
         <v>3.2951182613706023E-3</v>
       </c>
-      <c r="U13" s="25">
+      <c r="U13">
         <v>3.3295779594035577E-3</v>
       </c>
-      <c r="V13" s="25">
+      <c r="V13">
         <v>3.4226098569457714E-3</v>
       </c>
-      <c r="W13" s="25">
+      <c r="W13">
         <v>3.2541695135534831E-3</v>
       </c>
-      <c r="X13" s="25">
+      <c r="X13">
         <v>3.3490538446443148E-3</v>
       </c>
-      <c r="Y13" s="25">
+      <c r="Y13">
         <v>-4.7089675917983181E-5</v>
       </c>
-      <c r="Z13" s="25">
+      <c r="Z13">
         <v>-1.3951013782035355E-3</v>
       </c>
     </row>
@@ -7862,79 +7837,79 @@
       <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14">
         <v>-0.15817571389004698</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14">
         <v>-9.8458545392929222E-5</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14">
         <v>4.5673190878646724E-4</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14">
         <v>-8.4394665840813806E-6</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14">
         <v>-5.1583493205040502E-4</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14">
         <v>1.2397587723477076E-3</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14">
         <v>4.8086515101431956E-4</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14">
         <v>4.4916491976963735E-4</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14">
         <v>2.0245220919571055E-5</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14">
         <v>-1.1313804842758035E-4</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14">
         <v>3.0663753233707921E-4</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14">
         <v>9.4435180441856362E-4</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14">
         <v>3.226694470596658E-3</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14">
         <v>7.5281210074508312E-3</v>
       </c>
-      <c r="P14" s="25">
+      <c r="P14">
         <v>3.3176864671396467E-3</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="Q14">
         <v>3.4301050647980963E-3</v>
       </c>
-      <c r="R14" s="25">
+      <c r="R14">
         <v>3.3387812610480134E-3</v>
       </c>
-      <c r="S14" s="25">
+      <c r="S14">
         <v>3.3914644521629133E-3</v>
       </c>
-      <c r="T14" s="25">
+      <c r="T14">
         <v>3.4894830238709628E-3</v>
       </c>
-      <c r="U14" s="25">
+      <c r="U14">
         <v>3.4731375493095413E-3</v>
       </c>
-      <c r="V14" s="25">
+      <c r="V14">
         <v>3.5277572732164862E-3</v>
       </c>
-      <c r="W14" s="25">
+      <c r="W14">
         <v>3.4593586774842844E-3</v>
       </c>
-      <c r="X14" s="25">
+      <c r="X14">
         <v>3.2677651115009384E-3</v>
       </c>
-      <c r="Y14" s="25">
+      <c r="Y14">
         <v>6.4008303492994029E-5</v>
       </c>
-      <c r="Z14" s="25">
+      <c r="Z14">
         <v>-1.0453845533536895E-2</v>
       </c>
     </row>
@@ -7942,79 +7917,79 @@
       <c r="A15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15">
         <v>-0.19902974165342746</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15">
         <v>-4.92546028942822E-5</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15">
         <v>1.4032546201958682E-4</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15">
         <v>-3.4701541502354965E-6</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15">
         <v>-5.8056649943506082E-4</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15">
         <v>-6.0815480591771718E-4</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15">
         <v>1.2646261871128569E-4</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15">
         <v>3.1629900082423898E-4</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15">
         <v>1.2032401774755611E-4</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15">
         <v>1.6176235485698242E-4</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15">
         <v>-1.5088823212309858E-5</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15">
         <v>-7.6386876494424007E-5</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15">
         <v>3.2918368424121307E-3</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15">
         <v>3.3176864671396467E-3</v>
       </c>
-      <c r="P15" s="25">
+      <c r="P15">
         <v>8.0045588315381267E-3</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="Q15">
         <v>3.2908510281437465E-3</v>
       </c>
-      <c r="R15" s="25">
+      <c r="R15">
         <v>3.3352350461384019E-3</v>
       </c>
-      <c r="S15" s="25">
+      <c r="S15">
         <v>3.3354734077617699E-3</v>
       </c>
-      <c r="T15" s="25">
+      <c r="T15">
         <v>3.2933402446549622E-3</v>
       </c>
-      <c r="U15" s="25">
+      <c r="U15">
         <v>3.2933255184870664E-3</v>
       </c>
-      <c r="V15" s="25">
+      <c r="V15">
         <v>3.4625935230542275E-3</v>
       </c>
-      <c r="W15" s="25">
+      <c r="W15">
         <v>3.2980019206597833E-3</v>
       </c>
-      <c r="X15" s="25">
+      <c r="X15">
         <v>3.301996734873669E-3</v>
       </c>
-      <c r="Y15" s="25">
+      <c r="Y15">
         <v>1.4735266172636382E-5</v>
       </c>
-      <c r="Z15" s="25">
+      <c r="Z15">
         <v>-4.5471328425719208E-3</v>
       </c>
     </row>
@@ -8022,79 +7997,79 @@
       <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16">
         <v>-0.28635494226982494</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16">
         <v>-3.7153077822145702E-5</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16">
         <v>6.3979834987990675E-5</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16">
         <v>-1.4380084825889078E-6</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16">
         <v>-6.4988495863781441E-4</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16">
         <v>-5.0564422485884939E-4</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16">
         <v>1.7429390795552745E-4</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16">
         <v>2.1849724451546268E-4</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16">
         <v>1.9010534697422088E-4</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16">
         <v>-3.727105550735603E-4</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16">
         <v>3.4886846078260978E-5</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16">
         <v>3.0485556520903499E-4</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16">
         <v>3.2817683475305798E-3</v>
       </c>
-      <c r="O16" s="25">
+      <c r="O16">
         <v>3.4301050647980963E-3</v>
       </c>
-      <c r="P16" s="25">
+      <c r="P16">
         <v>3.2908510281437465E-3</v>
       </c>
-      <c r="Q16" s="25">
+      <c r="Q16">
         <v>7.6596668569916641E-3</v>
       </c>
-      <c r="R16" s="25">
+      <c r="R16">
         <v>3.3669026740094751E-3</v>
       </c>
-      <c r="S16" s="25">
+      <c r="S16">
         <v>3.3355225602167277E-3</v>
       </c>
-      <c r="T16" s="25">
+      <c r="T16">
         <v>3.3475168744565311E-3</v>
       </c>
-      <c r="U16" s="25">
+      <c r="U16">
         <v>3.3401230030831921E-3</v>
       </c>
-      <c r="V16" s="25">
+      <c r="V16">
         <v>3.6171678624433504E-3</v>
       </c>
-      <c r="W16" s="25">
+      <c r="W16">
         <v>3.4137953517816926E-3</v>
       </c>
-      <c r="X16" s="25">
+      <c r="X16">
         <v>3.3087835698453879E-3</v>
       </c>
-      <c r="Y16" s="25">
+      <c r="Y16">
         <v>-2.0467078196424588E-5</v>
       </c>
-      <c r="Z16" s="25">
+      <c r="Z16">
         <v>-3.4379843861617326E-3</v>
       </c>
     </row>
@@ -8102,79 +8077,79 @@
       <c r="A17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17">
         <v>7.8023757305989802E-2</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17">
         <v>-9.3001144039126275E-5</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17">
         <v>1.1550199242805646E-4</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17">
         <v>-2.8417892568625324E-6</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17">
         <v>-4.8872299654842204E-4</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17">
         <v>-6.6356398821766649E-4</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17">
         <v>-1.2603814636529659E-4</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17">
         <v>1.0291597087540499E-4</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17">
         <v>1.1708406848232996E-4</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17">
         <v>-3.3095211239885956E-5</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17">
         <v>-1.0200998620716131E-4</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17">
         <v>-3.7025456925710259E-5</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17">
         <v>3.371227717244657E-3</v>
       </c>
-      <c r="O17" s="25">
+      <c r="O17">
         <v>3.3387812610480134E-3</v>
       </c>
-      <c r="P17" s="25">
+      <c r="P17">
         <v>3.3352350461384019E-3</v>
       </c>
-      <c r="Q17" s="25">
+      <c r="Q17">
         <v>3.3669026740094751E-3</v>
       </c>
-      <c r="R17" s="25">
+      <c r="R17">
         <v>7.3060889753039761E-3</v>
       </c>
-      <c r="S17" s="25">
+      <c r="S17">
         <v>3.3778422882468841E-3</v>
       </c>
-      <c r="T17" s="25">
+      <c r="T17">
         <v>3.3516399198216681E-3</v>
       </c>
-      <c r="U17" s="25">
+      <c r="U17">
         <v>3.35423457659801E-3</v>
       </c>
-      <c r="V17" s="25">
+      <c r="V17">
         <v>3.4917165123531562E-3</v>
       </c>
-      <c r="W17" s="25">
+      <c r="W17">
         <v>3.3472958974853804E-3</v>
       </c>
-      <c r="X17" s="25">
+      <c r="X17">
         <v>3.373909773517288E-3</v>
       </c>
-      <c r="Y17" s="25">
+      <c r="Y17">
         <v>3.2730965582197742E-6</v>
       </c>
-      <c r="Z17" s="25">
+      <c r="Z17">
         <v>-4.0828555161821281E-3</v>
       </c>
     </row>
@@ -8182,79 +8157,79 @@
       <c r="A18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18">
         <v>-0.18873872228131813</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18">
         <v>-1.0868280413373638E-4</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18">
         <v>4.1361036631975406E-5</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18">
         <v>-1.3548108600620792E-6</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18">
         <v>-6.4638106503292915E-4</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18">
         <v>-9.7025974384637686E-4</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18">
         <v>2.2087620655502922E-4</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18">
         <v>3.9227031414154644E-4</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18">
         <v>8.1619516466128903E-5</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18">
         <v>1.3147637049267457E-4</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18">
         <v>-2.1416351897641519E-4</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18">
         <v>-9.9787901914152329E-5</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18">
         <v>3.3753066561186735E-3</v>
       </c>
-      <c r="O18" s="25">
+      <c r="O18">
         <v>3.3914644521629133E-3</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18">
         <v>3.3354734077617699E-3</v>
       </c>
-      <c r="Q18" s="25">
+      <c r="Q18">
         <v>3.3355225602167277E-3</v>
       </c>
-      <c r="R18" s="25">
+      <c r="R18">
         <v>3.3778422882468841E-3</v>
       </c>
-      <c r="S18" s="25">
+      <c r="S18">
         <v>7.3969361106132839E-3</v>
       </c>
-      <c r="T18" s="25">
+      <c r="T18">
         <v>3.3604286338967627E-3</v>
       </c>
-      <c r="U18" s="25">
+      <c r="U18">
         <v>3.348802313775494E-3</v>
       </c>
-      <c r="V18" s="25">
+      <c r="V18">
         <v>3.4424434609729875E-3</v>
       </c>
-      <c r="W18" s="25">
+      <c r="W18">
         <v>3.4110281673731977E-3</v>
       </c>
-      <c r="X18" s="25">
+      <c r="X18">
         <v>3.351875032356318E-3</v>
       </c>
-      <c r="Y18" s="25">
+      <c r="Y18">
         <v>-3.800299097999646E-5</v>
       </c>
-      <c r="Z18" s="25">
+      <c r="Z18">
         <v>-2.4204761063953001E-3</v>
       </c>
     </row>
@@ -8262,79 +8237,79 @@
       <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19">
         <v>-0.15894510601468753</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19">
         <v>-2.8142918558288611E-5</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19">
         <v>2.7497061557287249E-4</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19">
         <v>-5.5418404149012705E-6</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19">
         <v>-3.4621956652593254E-4</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19">
         <v>-3.4838340834716176E-4</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19">
         <v>2.9545317638445743E-4</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19">
         <v>3.3071008631440165E-4</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19">
         <v>1.49209536103706E-4</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19">
         <v>-2.5630999749340914E-4</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19">
         <v>1.8784545213272309E-4</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19">
         <v>5.5712732426393204E-4</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19">
         <v>3.2951182613706023E-3</v>
       </c>
-      <c r="O19" s="25">
+      <c r="O19">
         <v>3.4894830238709628E-3</v>
       </c>
-      <c r="P19" s="25">
+      <c r="P19">
         <v>3.2933402446549622E-3</v>
       </c>
-      <c r="Q19" s="25">
+      <c r="Q19">
         <v>3.3475168744565311E-3</v>
       </c>
-      <c r="R19" s="25">
+      <c r="R19">
         <v>3.3516399198216681E-3</v>
       </c>
-      <c r="S19" s="25">
+      <c r="S19">
         <v>3.3604286338967627E-3</v>
       </c>
-      <c r="T19" s="25">
+      <c r="T19">
         <v>6.1981482880477234E-3</v>
       </c>
-      <c r="U19" s="25">
+      <c r="U19">
         <v>3.3546112176264138E-3</v>
       </c>
-      <c r="V19" s="25">
+      <c r="V19">
         <v>3.528900972510008E-3</v>
       </c>
-      <c r="W19" s="25">
+      <c r="W19">
         <v>3.4586726185169116E-3</v>
       </c>
-      <c r="X19" s="25">
+      <c r="X19">
         <v>3.227067398844282E-3</v>
       </c>
-      <c r="Y19" s="25">
+      <c r="Y19">
         <v>-3.0521895668100615E-5</v>
       </c>
-      <c r="Z19" s="25">
+      <c r="Z19">
         <v>-6.312444501618962E-3</v>
       </c>
     </row>
@@ -8342,79 +8317,79 @@
       <c r="A20" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20">
         <v>-0.28780619107768368</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20">
         <v>-2.1828303530848047E-4</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20">
         <v>8.2359504884254794E-5</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20">
         <v>-1.9023792491266062E-6</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20">
         <v>-3.2919300838930377E-4</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20">
         <v>-1.2594232839430348E-4</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20">
         <v>3.1479709646340011E-5</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20">
         <v>1.6367350150356895E-4</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20">
         <v>9.3763771012558286E-5</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20">
         <v>-2.9175042487293026E-4</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20">
         <v>8.4953571662327472E-5</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20">
         <v>2.5638324561553719E-4</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N20">
         <v>3.3295779594035577E-3</v>
       </c>
-      <c r="O20" s="25">
+      <c r="O20">
         <v>3.4731375493095413E-3</v>
       </c>
-      <c r="P20" s="25">
+      <c r="P20">
         <v>3.2933255184870664E-3</v>
       </c>
-      <c r="Q20" s="25">
+      <c r="Q20">
         <v>3.3401230030831921E-3</v>
       </c>
-      <c r="R20" s="25">
+      <c r="R20">
         <v>3.35423457659801E-3</v>
       </c>
-      <c r="S20" s="25">
+      <c r="S20">
         <v>3.348802313775494E-3</v>
       </c>
-      <c r="T20" s="25">
+      <c r="T20">
         <v>3.3546112176264138E-3</v>
       </c>
-      <c r="U20" s="25">
+      <c r="U20">
         <v>7.8541748863150702E-3</v>
       </c>
-      <c r="V20" s="25">
+      <c r="V20">
         <v>3.5804828554357559E-3</v>
       </c>
-      <c r="W20" s="25">
+      <c r="W20">
         <v>3.42782437932316E-3</v>
       </c>
-      <c r="X20" s="25">
+      <c r="X20">
         <v>3.2636319204168564E-3</v>
       </c>
-      <c r="Y20" s="25">
+      <c r="Y20">
         <v>-4.7600812262649602E-6</v>
       </c>
-      <c r="Z20" s="25">
+      <c r="Z20">
         <v>-3.9597519382081475E-3</v>
       </c>
     </row>
@@ -8422,79 +8397,79 @@
       <c r="A21" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21">
         <v>-0.17382030825426378</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21">
         <v>-5.2568673239317739E-4</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21">
         <v>4.5702769113159861E-4</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21">
         <v>-7.0600482930148543E-6</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21">
         <v>2.1329573569200911E-4</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21">
         <v>2.2780275559413678E-4</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21">
         <v>7.972554861306394E-6</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21">
         <v>-4.1350341070338879E-4</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21">
         <v>5.0085707653012876E-4</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21">
         <v>-1.1622898097649109E-3</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21">
         <v>-5.1763065742657546E-5</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21">
         <v>5.6443869187169796E-4</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21">
         <v>3.4226098569457714E-3</v>
       </c>
-      <c r="O21" s="25">
+      <c r="O21">
         <v>3.5277572732164862E-3</v>
       </c>
-      <c r="P21" s="25">
+      <c r="P21">
         <v>3.4625935230542275E-3</v>
       </c>
-      <c r="Q21" s="25">
+      <c r="Q21">
         <v>3.6171678624433504E-3</v>
       </c>
-      <c r="R21" s="25">
+      <c r="R21">
         <v>3.4917165123531562E-3</v>
       </c>
-      <c r="S21" s="25">
+      <c r="S21">
         <v>3.4424434609729875E-3</v>
       </c>
-      <c r="T21" s="25">
+      <c r="T21">
         <v>3.528900972510008E-3</v>
       </c>
-      <c r="U21" s="25">
+      <c r="U21">
         <v>3.5804828554357559E-3</v>
       </c>
-      <c r="V21" s="25">
+      <c r="V21">
         <v>1.8558959688181657E-2</v>
       </c>
-      <c r="W21" s="25">
+      <c r="W21">
         <v>3.426629476958569E-3</v>
       </c>
-      <c r="X21" s="25">
+      <c r="X21">
         <v>3.3742207523942179E-3</v>
       </c>
-      <c r="Y21" s="25">
+      <c r="Y21">
         <v>8.1765511882469477E-5</v>
       </c>
-      <c r="Z21" s="25">
+      <c r="Z21">
         <v>-1.1587172195334661E-2</v>
       </c>
     </row>
@@ -8502,79 +8477,79 @@
       <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22">
         <v>0.16497554703951572</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22">
         <v>1.07976708540469E-5</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22">
         <v>8.7911573919935426E-4</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22">
         <v>-1.7066555745213021E-5</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22">
         <v>-2.8963710510932026E-4</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22">
         <v>-1.9135151690613268E-4</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22">
         <v>4.521508531641228E-4</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22">
         <v>5.7233236843847683E-4</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22">
         <v>1.8745047710747162E-5</v>
       </c>
-      <c r="K22" s="25">
+      <c r="K22">
         <v>2.6599465698443027E-4</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22">
         <v>3.236390033105089E-4</v>
       </c>
-      <c r="M22" s="25">
+      <c r="M22">
         <v>1.0032523043572161E-3</v>
       </c>
-      <c r="N22" s="25">
+      <c r="N22">
         <v>3.2541695135534831E-3</v>
       </c>
-      <c r="O22" s="25">
+      <c r="O22">
         <v>3.4593586774842844E-3</v>
       </c>
-      <c r="P22" s="25">
+      <c r="P22">
         <v>3.2980019206597833E-3</v>
       </c>
-      <c r="Q22" s="25">
+      <c r="Q22">
         <v>3.4137953517816926E-3</v>
       </c>
-      <c r="R22" s="25">
+      <c r="R22">
         <v>3.3472958974853804E-3</v>
       </c>
-      <c r="S22" s="25">
+      <c r="S22">
         <v>3.4110281673731977E-3</v>
       </c>
-      <c r="T22" s="25">
+      <c r="T22">
         <v>3.4586726185169116E-3</v>
       </c>
-      <c r="U22" s="25">
+      <c r="U22">
         <v>3.42782437932316E-3</v>
       </c>
-      <c r="V22" s="25">
+      <c r="V22">
         <v>3.426629476958569E-3</v>
       </c>
-      <c r="W22" s="25">
+      <c r="W22">
         <v>9.558226789450527E-3</v>
       </c>
-      <c r="X22" s="25">
+      <c r="X22">
         <v>3.2517409443712929E-3</v>
       </c>
-      <c r="Y22" s="25">
+      <c r="Y22">
         <v>9.4564107242971378E-5</v>
       </c>
-      <c r="Z22" s="25">
+      <c r="Z22">
         <v>-1.6126230233396453E-2</v>
       </c>
     </row>
@@ -8582,79 +8557,79 @@
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23">
         <v>7.2535872664028556E-2</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23">
         <v>2.7218444335026641E-5</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23">
         <v>-1.833638173539074E-4</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23">
         <v>2.84427283414986E-6</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23">
         <v>-5.5354307950471453E-4</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23">
         <v>-1.1567273185446383E-3</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23">
         <v>-2.024551725107902E-4</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23">
         <v>5.9942582227550788E-6</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23">
         <v>6.5096399023593845E-5</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23">
         <v>-2.5105392201745153E-4</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23">
         <v>-1.7308567913675455E-5</v>
       </c>
-      <c r="M23" s="25">
+      <c r="M23">
         <v>-1.8833571180154791E-4</v>
       </c>
-      <c r="N23" s="25">
+      <c r="N23">
         <v>3.3490538446443148E-3</v>
       </c>
-      <c r="O23" s="25">
+      <c r="O23">
         <v>3.2677651115009384E-3</v>
       </c>
-      <c r="P23" s="25">
+      <c r="P23">
         <v>3.301996734873669E-3</v>
       </c>
-      <c r="Q23" s="25">
+      <c r="Q23">
         <v>3.3087835698453879E-3</v>
       </c>
-      <c r="R23" s="25">
+      <c r="R23">
         <v>3.373909773517288E-3</v>
       </c>
-      <c r="S23" s="25">
+      <c r="S23">
         <v>3.351875032356318E-3</v>
       </c>
-      <c r="T23" s="25">
+      <c r="T23">
         <v>3.227067398844282E-3</v>
       </c>
-      <c r="U23" s="25">
+      <c r="U23">
         <v>3.2636319204168564E-3</v>
       </c>
-      <c r="V23" s="25">
+      <c r="V23">
         <v>3.3742207523942179E-3</v>
       </c>
-      <c r="W23" s="25">
+      <c r="W23">
         <v>3.2517409443712929E-3</v>
       </c>
-      <c r="X23" s="25">
+      <c r="X23">
         <v>1.0629971708148658E-2</v>
       </c>
-      <c r="Y23" s="25">
+      <c r="Y23">
         <v>1.8382991246653726E-5</v>
       </c>
-      <c r="Z23" s="25">
+      <c r="Z23">
         <v>-4.3263767816397857E-4</v>
       </c>
     </row>
@@ -8662,79 +8637,79 @@
       <c r="A24" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24">
         <v>5.0938436383108797E-3</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24">
         <v>1.1782987276393075E-5</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24">
         <v>4.4414555676991507E-5</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24">
         <v>-8.3754712588214562E-7</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24">
         <v>-8.3055334261009615E-6</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24">
         <v>5.6658892155659691E-5</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24">
         <v>1.4277389611808892E-5</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24">
         <v>-1.0175843980924783E-5</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24">
         <v>2.3623460270961116E-6</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24">
         <v>6.3532852139366815E-5</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24">
         <v>5.2544842575245703E-6</v>
       </c>
-      <c r="M24" s="25">
+      <c r="M24">
         <v>9.1994324071323908E-5</v>
       </c>
-      <c r="N24" s="25">
+      <c r="N24">
         <v>-4.7089675917983181E-5</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24">
         <v>6.4008303492994029E-5</v>
       </c>
-      <c r="P24" s="25">
+      <c r="P24">
         <v>1.4735266172636382E-5</v>
       </c>
-      <c r="Q24" s="25">
+      <c r="Q24">
         <v>-2.0467078196424588E-5</v>
       </c>
-      <c r="R24" s="25">
+      <c r="R24">
         <v>3.2730965582197742E-6</v>
       </c>
-      <c r="S24" s="25">
+      <c r="S24">
         <v>-3.800299097999646E-5</v>
       </c>
-      <c r="T24" s="25">
+      <c r="T24">
         <v>-3.0521895668100615E-5</v>
       </c>
-      <c r="U24" s="25">
+      <c r="U24">
         <v>-4.7600812262649602E-6</v>
       </c>
-      <c r="V24" s="25">
+      <c r="V24">
         <v>8.1765511882469477E-5</v>
       </c>
-      <c r="W24" s="25">
+      <c r="W24">
         <v>9.4564107242971378E-5</v>
       </c>
-      <c r="X24" s="25">
+      <c r="X24">
         <v>1.8382991246653726E-5</v>
       </c>
-      <c r="Y24" s="25">
+      <c r="Y24">
         <v>4.5216905091776519E-5</v>
       </c>
-      <c r="Z24" s="25">
+      <c r="Z24">
         <v>-1.2948756174171044E-3</v>
       </c>
     </row>
@@ -8742,87 +8717,81 @@
       <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25">
         <v>8.2732668862811209</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25">
         <v>-2.4255406679104512E-3</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25">
         <v>-3.0680510027793956E-2</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25">
         <v>5.6750877986327768E-4</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25">
         <v>-7.3239673226412477E-3</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25">
         <v>-1.3304483028293707E-2</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25">
         <v>-1.8810521777396921E-2</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25">
         <v>-1.000691154754238E-2</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25">
         <v>-2.1529799454289289E-3</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25">
         <v>4.6194632338603658E-3</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25">
         <v>-2.6379093618582213E-3</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25">
         <v>-1.0060455310436799E-2</v>
       </c>
-      <c r="N25" s="25">
+      <c r="N25">
         <v>-1.3951013782035355E-3</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25">
         <v>-1.0453845533536895E-2</v>
       </c>
-      <c r="P25" s="25">
+      <c r="P25">
         <v>-4.5471328425719208E-3</v>
       </c>
-      <c r="Q25" s="25">
+      <c r="Q25">
         <v>-3.4379843861617326E-3</v>
       </c>
-      <c r="R25" s="25">
+      <c r="R25">
         <v>-4.0828555161821281E-3</v>
       </c>
-      <c r="S25" s="25">
+      <c r="S25">
         <v>-2.4204761063953001E-3</v>
       </c>
-      <c r="T25" s="25">
+      <c r="T25">
         <v>-6.312444501618962E-3</v>
       </c>
-      <c r="U25" s="25">
+      <c r="U25">
         <v>-3.9597519382081475E-3</v>
       </c>
-      <c r="V25" s="25">
+      <c r="V25">
         <v>-1.1587172195334661E-2</v>
       </c>
-      <c r="W25" s="25">
+      <c r="W25">
         <v>-1.6126230233396453E-2</v>
       </c>
-      <c r="X25" s="25">
+      <c r="X25">
         <v>-4.3263767816397857E-4</v>
       </c>
-      <c r="Y25" s="25">
+      <c r="Y25">
         <v>-1.2948756174171044E-3</v>
       </c>
-      <c r="Z25" s="25">
+      <c r="Z25">
         <v>0.43353698379064198</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8831,9 +8800,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1285CCF6-ED07-4956-95C1-5161D138438C}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U21" sqref="A21:XFD22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10140,12 +10111,6 @@
       <c r="U20">
         <v>3.2956012755334996</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10173,14 +10138,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>132</v>
       </c>
     </row>
@@ -10439,16 +10404,16 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="20">
+      <c r="B22" s="18">
         <v>5.9691530000000004</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="18">
         <v>0.66896920000000004</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="19">
         <v>0</v>
       </c>
     </row>
@@ -10469,14 +10434,14 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="20">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -10503,14 +10468,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>132</v>
       </c>
     </row>
@@ -10869,16 +10834,16 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="18">
         <v>8.2732670000000006</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="18">
         <v>0.65843529999999995</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="19">
         <v>0</v>
       </c>
     </row>
@@ -10899,14 +10864,14 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="20">
         <v>0.22309999999999999</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -10932,14 +10897,14 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>132</v>
       </c>
     </row>
@@ -11184,16 +11149,16 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="18">
         <v>2.4429999999999998E-4</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="18">
         <v>8.3604000000000005E-3</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <v>0.03</v>
       </c>
     </row>
@@ -11210,16 +11175,16 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="18">
         <v>27.129180000000002</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="18">
         <v>1.8153790000000001</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -11230,14 +11195,14 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="20">
         <v>0.3589</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>

--- a/input/reg_education.xlsx
+++ b/input/reg_education.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3196A4D3-8573-4042-ACCC-046101B8864B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B119E2-D677-4E69-A472-CA5E1615F80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="919" activeTab="1" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="919" xr2:uid="{536B1BCD-7004-4A8B-8363-6CEFA8439CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="12" r:id="rId1"/>
@@ -29,10 +29,18 @@
     <sheet name="IT_Process E1b - Breaks" sheetId="43" r:id="rId14"/>
     <sheet name="IT_Process E2 - Education Level" sheetId="44" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -663,9 +671,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -703,7 +711,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -809,7 +817,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -951,7 +959,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -961,9 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F25AC8-F3A4-45E4-B3D4-29D900575D65}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5586,9 +5592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ED3F4A-E6FE-4140-8298-230560D8220D}">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6783,9 +6787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D54BEF-A785-4097-B447-1AE751D019CE}">
   <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8802,9 +8804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1285CCF6-ED07-4956-95C1-5161D138438C}">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U21" sqref="A21:XFD22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
